--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,23 +472,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29.12.2020</t>
+          <t>30.12.2020</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36641</v>
+        <v>36836</v>
       </c>
       <c r="D2" t="n">
-        <v>160110</v>
+        <v>160943</v>
       </c>
       <c r="E2" t="n">
-        <v>1748</v>
+        <v>1763</v>
       </c>
       <c r="F2" t="n">
-        <v>23123</v>
+        <v>23248</v>
       </c>
       <c r="G2" t="n">
-        <v>11770</v>
+        <v>11825</v>
       </c>
     </row>
     <row r="3">
@@ -497,23 +497,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28.12.2020</t>
+          <t>29.12.2020</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36492</v>
+        <v>36641</v>
       </c>
       <c r="D3" t="n">
-        <v>159455</v>
+        <v>160110</v>
       </c>
       <c r="E3" t="n">
-        <v>1727</v>
+        <v>1748</v>
       </c>
       <c r="F3" t="n">
-        <v>22885</v>
+        <v>23123</v>
       </c>
       <c r="G3" t="n">
-        <v>11880</v>
+        <v>11770</v>
       </c>
     </row>
     <row r="4">
@@ -522,23 +522,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>27.12.2020</t>
+          <t>28.12.2020</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36424</v>
+        <v>36492</v>
       </c>
       <c r="D4" t="n">
-        <v>159032</v>
+        <v>159455</v>
       </c>
       <c r="E4" t="n">
-        <v>1713</v>
+        <v>1727</v>
       </c>
       <c r="F4" t="n">
-        <v>22820</v>
+        <v>22885</v>
       </c>
       <c r="G4" t="n">
-        <v>11891</v>
+        <v>11880</v>
       </c>
     </row>
     <row r="5">
@@ -547,23 +547,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26.12.2020</t>
+          <t>27.12.2020</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36310</v>
+        <v>36424</v>
       </c>
       <c r="D5" t="n">
-        <v>158531</v>
+        <v>159032</v>
       </c>
       <c r="E5" t="n">
-        <v>1695</v>
+        <v>1713</v>
       </c>
       <c r="F5" t="n">
-        <v>22633</v>
+        <v>22820</v>
       </c>
       <c r="G5" t="n">
-        <v>11982</v>
+        <v>11891</v>
       </c>
     </row>
     <row r="6">
@@ -572,23 +572,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25.12.2020</t>
+          <t>26.12.2020</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36069</v>
+        <v>36310</v>
       </c>
       <c r="D6" t="n">
-        <v>157614</v>
+        <v>158531</v>
       </c>
       <c r="E6" t="n">
-        <v>1681</v>
+        <v>1695</v>
       </c>
       <c r="F6" t="n">
-        <v>22363</v>
+        <v>22633</v>
       </c>
       <c r="G6" t="n">
-        <v>12025</v>
+        <v>11982</v>
       </c>
     </row>
     <row r="7">
@@ -597,23 +597,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24.12.2020</t>
+          <t>25.12.2020</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35829</v>
+        <v>36069</v>
       </c>
       <c r="D7" t="n">
-        <v>156778</v>
+        <v>157614</v>
       </c>
       <c r="E7" t="n">
-        <v>1664</v>
+        <v>1681</v>
       </c>
       <c r="F7" t="n">
-        <v>22018</v>
+        <v>22363</v>
       </c>
       <c r="G7" t="n">
-        <v>12147</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="8">
@@ -622,23 +622,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23.12.2020</t>
+          <t>24.12.2020</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35596</v>
+        <v>35829</v>
       </c>
       <c r="D8" t="n">
-        <v>155937</v>
+        <v>156778</v>
       </c>
       <c r="E8" t="n">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="F8" t="n">
-        <v>21715</v>
+        <v>22018</v>
       </c>
       <c r="G8" t="n">
-        <v>12237</v>
+        <v>12147</v>
       </c>
     </row>
     <row r="9">
@@ -647,23 +647,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.12.2020</t>
+          <t>23.12.2020</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35370</v>
+        <v>35596</v>
       </c>
       <c r="D9" t="n">
-        <v>154976</v>
+        <v>155937</v>
       </c>
       <c r="E9" t="n">
-        <v>1610</v>
+        <v>1644</v>
       </c>
       <c r="F9" t="n">
-        <v>21506</v>
+        <v>21715</v>
       </c>
       <c r="G9" t="n">
-        <v>12254</v>
+        <v>12237</v>
       </c>
     </row>
     <row r="10">
@@ -672,23 +672,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21.12.2020</t>
+          <t>22.12.2020</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35190</v>
+        <v>35370</v>
       </c>
       <c r="D10" t="n">
-        <v>154341</v>
+        <v>154976</v>
       </c>
       <c r="E10" t="n">
-        <v>1588</v>
+        <v>1610</v>
       </c>
       <c r="F10" t="n">
-        <v>21135</v>
+        <v>21506</v>
       </c>
       <c r="G10" t="n">
-        <v>12467</v>
+        <v>12254</v>
       </c>
     </row>
     <row r="11">
@@ -697,23 +697,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20.12.2020</t>
+          <t>21.12.2020</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35133</v>
+        <v>35190</v>
       </c>
       <c r="D11" t="n">
-        <v>154044</v>
+        <v>154341</v>
       </c>
       <c r="E11" t="n">
-        <v>1565</v>
+        <v>1588</v>
       </c>
       <c r="F11" t="n">
-        <v>21004</v>
+        <v>21135</v>
       </c>
       <c r="G11" t="n">
-        <v>12564</v>
+        <v>12467</v>
       </c>
     </row>
     <row r="12">
@@ -722,23 +722,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19.12.2020</t>
+          <t>20.12.2020</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35008</v>
+        <v>35133</v>
       </c>
       <c r="D12" t="n">
-        <v>153568</v>
+        <v>154044</v>
       </c>
       <c r="E12" t="n">
-        <v>1546</v>
+        <v>1565</v>
       </c>
       <c r="F12" t="n">
-        <v>20755</v>
+        <v>21004</v>
       </c>
       <c r="G12" t="n">
-        <v>12707</v>
+        <v>12564</v>
       </c>
     </row>
     <row r="13">
@@ -747,23 +747,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18.12.2020</t>
+          <t>19.12.2020</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34804</v>
+        <v>35008</v>
       </c>
       <c r="D13" t="n">
-        <v>152695</v>
+        <v>153568</v>
       </c>
       <c r="E13" t="n">
-        <v>1518</v>
+        <v>1546</v>
       </c>
       <c r="F13" t="n">
-        <v>20535</v>
+        <v>20755</v>
       </c>
       <c r="G13" t="n">
-        <v>12751</v>
+        <v>12707</v>
       </c>
     </row>
     <row r="14">
@@ -772,23 +772,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17.12.2020</t>
+          <t>18.12.2020</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34596</v>
+        <v>34804</v>
       </c>
       <c r="D14" t="n">
-        <v>151834</v>
+        <v>152695</v>
       </c>
       <c r="E14" t="n">
-        <v>1503</v>
+        <v>1518</v>
       </c>
       <c r="F14" t="n">
-        <v>20368</v>
+        <v>20535</v>
       </c>
       <c r="G14" t="n">
-        <v>12725</v>
+        <v>12751</v>
       </c>
     </row>
     <row r="15">
@@ -797,23 +797,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16.12.2020</t>
+          <t>17.12.2020</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34310</v>
+        <v>34596</v>
       </c>
       <c r="D15" t="n">
-        <v>150933</v>
+        <v>151834</v>
       </c>
       <c r="E15" t="n">
-        <v>1487</v>
+        <v>1503</v>
       </c>
       <c r="F15" t="n">
-        <v>20039</v>
+        <v>20368</v>
       </c>
       <c r="G15" t="n">
-        <v>12784</v>
+        <v>12725</v>
       </c>
     </row>
     <row r="16">
@@ -822,23 +822,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15.12.2020</t>
+          <t>16.12.2020</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34028</v>
+        <v>34310</v>
       </c>
       <c r="D16" t="n">
-        <v>149861</v>
+        <v>150933</v>
       </c>
       <c r="E16" t="n">
-        <v>1462</v>
+        <v>1487</v>
       </c>
       <c r="F16" t="n">
-        <v>19861</v>
+        <v>20039</v>
       </c>
       <c r="G16" t="n">
-        <v>12705</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="17">
@@ -847,23 +847,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.12.2020</t>
+          <t>15.12.2020</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33766</v>
+        <v>34028</v>
       </c>
       <c r="D17" t="n">
-        <v>149093</v>
+        <v>149861</v>
       </c>
       <c r="E17" t="n">
-        <v>1428</v>
+        <v>1462</v>
       </c>
       <c r="F17" t="n">
-        <v>19706</v>
+        <v>19861</v>
       </c>
       <c r="G17" t="n">
-        <v>12632</v>
+        <v>12705</v>
       </c>
     </row>
     <row r="18">
@@ -872,23 +872,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13.12.2020</t>
+          <t>14.12.2020</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>33664</v>
+        <v>33766</v>
       </c>
       <c r="D18" t="n">
-        <v>148729</v>
+        <v>149093</v>
       </c>
       <c r="E18" t="n">
-        <v>1396</v>
+        <v>1428</v>
       </c>
       <c r="F18" t="n">
-        <v>19510</v>
+        <v>19706</v>
       </c>
       <c r="G18" t="n">
-        <v>12758</v>
+        <v>12632</v>
       </c>
     </row>
     <row r="19">
@@ -897,23 +897,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12.12.2020</t>
+          <t>13.12.2020</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33554</v>
+        <v>33664</v>
       </c>
       <c r="D19" t="n">
-        <v>148360</v>
+        <v>148729</v>
       </c>
       <c r="E19" t="n">
-        <v>1372</v>
+        <v>1396</v>
       </c>
       <c r="F19" t="n">
-        <v>19403</v>
+        <v>19510</v>
       </c>
       <c r="G19" t="n">
-        <v>12779</v>
+        <v>12758</v>
       </c>
     </row>
     <row r="20">
@@ -922,23 +922,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11.12.2020</t>
+          <t>12.12.2020</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33271</v>
+        <v>33554</v>
       </c>
       <c r="D20" t="n">
-        <v>147429</v>
+        <v>148360</v>
       </c>
       <c r="E20" t="n">
-        <v>1340</v>
+        <v>1372</v>
       </c>
       <c r="F20" t="n">
-        <v>19149</v>
+        <v>19403</v>
       </c>
       <c r="G20" t="n">
-        <v>12782</v>
+        <v>12779</v>
       </c>
     </row>
     <row r="21">
@@ -947,23 +947,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10.12.2020</t>
+          <t>11.12.2020</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32925</v>
+        <v>33271</v>
       </c>
       <c r="D21" t="n">
-        <v>146542</v>
+        <v>147429</v>
       </c>
       <c r="E21" t="n">
-        <v>1307</v>
+        <v>1340</v>
       </c>
       <c r="F21" t="n">
-        <v>18667</v>
+        <v>19149</v>
       </c>
       <c r="G21" t="n">
-        <v>12951</v>
+        <v>12782</v>
       </c>
     </row>
     <row r="22">
@@ -972,23 +972,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09.12.2020</t>
+          <t>10.12.2020</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32546</v>
+        <v>32925</v>
       </c>
       <c r="D22" t="n">
-        <v>145439</v>
+        <v>146542</v>
       </c>
       <c r="E22" t="n">
-        <v>1279</v>
+        <v>1307</v>
       </c>
       <c r="F22" t="n">
-        <v>18098</v>
+        <v>18667</v>
       </c>
       <c r="G22" t="n">
-        <v>13169</v>
+        <v>12951</v>
       </c>
     </row>
     <row r="23">
@@ -997,23 +997,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08.12.2020</t>
+          <t>09.12.2020</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32176</v>
+        <v>32546</v>
       </c>
       <c r="D23" t="n">
-        <v>138897</v>
+        <v>145439</v>
       </c>
       <c r="E23" t="n">
-        <v>1240</v>
+        <v>1279</v>
       </c>
       <c r="F23" t="n">
-        <v>17648</v>
+        <v>18098</v>
       </c>
       <c r="G23" t="n">
-        <v>13288</v>
+        <v>13169</v>
       </c>
     </row>
     <row r="24">
@@ -1022,23 +1022,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07.12.2020</t>
+          <t>08.12.2020</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>31854</v>
+        <v>32176</v>
       </c>
       <c r="D24" t="n">
-        <v>137931</v>
+        <v>138897</v>
       </c>
       <c r="E24" t="n">
-        <v>1212</v>
+        <v>1240</v>
       </c>
       <c r="F24" t="n">
-        <v>17279</v>
+        <v>17648</v>
       </c>
       <c r="G24" t="n">
-        <v>13363</v>
+        <v>13288</v>
       </c>
     </row>
     <row r="25">
@@ -1047,23 +1047,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>07.12.2020</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>31769</v>
+        <v>31854</v>
       </c>
       <c r="D25" t="n">
-        <v>137543</v>
+        <v>137931</v>
       </c>
       <c r="E25" t="n">
-        <v>1196</v>
+        <v>1212</v>
       </c>
       <c r="F25" t="n">
-        <v>17054</v>
+        <v>17279</v>
       </c>
       <c r="G25" t="n">
-        <v>13519</v>
+        <v>13363</v>
       </c>
     </row>
     <row r="26">
@@ -1072,23 +1072,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>05.12.2020</t>
+          <t>06.12.2020</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>31643</v>
+        <v>31769</v>
       </c>
       <c r="D26" t="n">
-        <v>137182</v>
+        <v>137543</v>
       </c>
       <c r="E26" t="n">
-        <v>1178</v>
+        <v>1196</v>
       </c>
       <c r="F26" t="n">
-        <v>16898</v>
+        <v>17054</v>
       </c>
       <c r="G26" t="n">
-        <v>13567</v>
+        <v>13519</v>
       </c>
     </row>
     <row r="27">
@@ -1097,23 +1097,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04.12.2020</t>
+          <t>05.12.2020</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>31385</v>
+        <v>31643</v>
       </c>
       <c r="D27" t="n">
-        <v>136324</v>
+        <v>137182</v>
       </c>
       <c r="E27" t="n">
-        <v>1136</v>
+        <v>1178</v>
       </c>
       <c r="F27" t="n">
-        <v>16648</v>
+        <v>16898</v>
       </c>
       <c r="G27" t="n">
-        <v>13601</v>
+        <v>13567</v>
       </c>
     </row>
     <row r="28">
@@ -1122,23 +1122,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>03.12.2020</t>
+          <t>04.12.2020</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>31002</v>
+        <v>31385</v>
       </c>
       <c r="D28" t="n">
-        <v>135421</v>
+        <v>136324</v>
       </c>
       <c r="E28" t="n">
-        <v>1108</v>
+        <v>1136</v>
       </c>
       <c r="F28" t="n">
-        <v>16245</v>
+        <v>16648</v>
       </c>
       <c r="G28" t="n">
-        <v>13649</v>
+        <v>13601</v>
       </c>
     </row>
     <row r="29">
@@ -1147,23 +1147,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02.12.2020</t>
+          <t>03.12.2020</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30636</v>
+        <v>31002</v>
       </c>
       <c r="D29" t="n">
-        <v>134424</v>
+        <v>135421</v>
       </c>
       <c r="E29" t="n">
-        <v>1089</v>
+        <v>1108</v>
       </c>
       <c r="F29" t="n">
-        <v>15563</v>
+        <v>16245</v>
       </c>
       <c r="G29" t="n">
-        <v>13984</v>
+        <v>13649</v>
       </c>
     </row>
     <row r="30">
@@ -1172,23 +1172,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>02.12.2020</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30287</v>
+        <v>30636</v>
       </c>
       <c r="D30" t="n">
-        <v>133383</v>
+        <v>134424</v>
       </c>
       <c r="E30" t="n">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="F30" t="n">
-        <v>15017</v>
+        <v>15563</v>
       </c>
       <c r="G30" t="n">
-        <v>14202</v>
+        <v>13984</v>
       </c>
     </row>
     <row r="31">
@@ -1197,23 +1197,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>30.11.2020</t>
+          <t>01.12.2020</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>29952</v>
+        <v>30287</v>
       </c>
       <c r="D31" t="n">
-        <v>132505</v>
+        <v>133383</v>
       </c>
       <c r="E31" t="n">
-        <v>1048</v>
+        <v>1068</v>
       </c>
       <c r="F31" t="n">
-        <v>14670</v>
+        <v>15017</v>
       </c>
       <c r="G31" t="n">
-        <v>14234</v>
+        <v>14202</v>
       </c>
     </row>
     <row r="32">
@@ -1222,23 +1222,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29.11.2020</t>
+          <t>30.11.2020</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>29818</v>
+        <v>29952</v>
       </c>
       <c r="D32" t="n">
-        <v>132185</v>
+        <v>132505</v>
       </c>
       <c r="E32" t="n">
-        <v>1031</v>
+        <v>1048</v>
       </c>
       <c r="F32" t="n">
-        <v>14437</v>
+        <v>14670</v>
       </c>
       <c r="G32" t="n">
-        <v>14350</v>
+        <v>14234</v>
       </c>
     </row>
     <row r="33">
@@ -1247,23 +1247,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>28.11.2020</t>
+          <t>29.11.2020</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>29735</v>
+        <v>29818</v>
       </c>
       <c r="D33" t="n">
-        <v>131916</v>
+        <v>132185</v>
       </c>
       <c r="E33" t="n">
-        <v>1005</v>
+        <v>1031</v>
       </c>
       <c r="F33" t="n">
-        <v>14278</v>
+        <v>14437</v>
       </c>
       <c r="G33" t="n">
-        <v>14452</v>
+        <v>14350</v>
       </c>
     </row>
     <row r="34">
@@ -1272,23 +1272,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>27.11.2020</t>
+          <t>28.11.2020</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29366</v>
+        <v>29735</v>
       </c>
       <c r="D34" t="n">
-        <v>130941</v>
+        <v>131916</v>
       </c>
       <c r="E34" t="n">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="F34" t="n">
-        <v>14112</v>
+        <v>14278</v>
       </c>
       <c r="G34" t="n">
-        <v>14267</v>
+        <v>14452</v>
       </c>
     </row>
     <row r="35">
@@ -1297,23 +1297,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>26.11.2020</t>
+          <t>27.11.2020</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>28978</v>
+        <v>29366</v>
       </c>
       <c r="D35" t="n">
-        <v>130014</v>
+        <v>130941</v>
       </c>
       <c r="E35" t="n">
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="F35" t="n">
-        <v>13856</v>
+        <v>14112</v>
       </c>
       <c r="G35" t="n">
-        <v>14160</v>
+        <v>14267</v>
       </c>
     </row>
     <row r="36">
@@ -1322,23 +1322,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>25.11.2020</t>
+          <t>26.11.2020</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>28555</v>
+        <v>28978</v>
       </c>
       <c r="D36" t="n">
-        <v>129007</v>
+        <v>130014</v>
       </c>
       <c r="E36" t="n">
-        <v>941</v>
+        <v>962</v>
       </c>
       <c r="F36" t="n">
-        <v>13804</v>
+        <v>13856</v>
       </c>
       <c r="G36" t="n">
-        <v>13810</v>
+        <v>14160</v>
       </c>
     </row>
     <row r="37">
@@ -1347,23 +1347,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>24.11.2020</t>
+          <t>25.11.2020</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>28138</v>
+        <v>28555</v>
       </c>
       <c r="D37" t="n">
-        <v>127984</v>
+        <v>129007</v>
       </c>
       <c r="E37" t="n">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="F37" t="n">
-        <v>13761</v>
+        <v>13804</v>
       </c>
       <c r="G37" t="n">
-        <v>13464</v>
+        <v>13810</v>
       </c>
     </row>
     <row r="38">
@@ -1372,23 +1372,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23.11.2020</t>
+          <t>24.11.2020</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>27726</v>
+        <v>28138</v>
       </c>
       <c r="D38" t="n">
-        <v>126944</v>
+        <v>127984</v>
       </c>
       <c r="E38" t="n">
-        <v>886</v>
+        <v>913</v>
       </c>
       <c r="F38" t="n">
-        <v>13533</v>
+        <v>13761</v>
       </c>
       <c r="G38" t="n">
-        <v>13307</v>
+        <v>13464</v>
       </c>
     </row>
     <row r="39">
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22.11.2020</t>
+          <t>23.11.2020</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>27545</v>
+        <v>27726</v>
       </c>
       <c r="D39" t="n">
-        <v>126552</v>
+        <v>126944</v>
       </c>
       <c r="E39" t="n">
-        <v>860</v>
+        <v>886</v>
       </c>
       <c r="F39" t="n">
-        <v>13018</v>
+        <v>13533</v>
       </c>
       <c r="G39" t="n">
-        <v>13667</v>
+        <v>13307</v>
       </c>
     </row>
     <row r="40">
@@ -1422,23 +1422,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>21.11.2020</t>
+          <t>22.11.2020</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>27357</v>
+        <v>27545</v>
       </c>
       <c r="D40" t="n">
-        <v>126009</v>
+        <v>126552</v>
       </c>
       <c r="E40" t="n">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="F40" t="n">
-        <v>12762</v>
+        <v>13018</v>
       </c>
       <c r="G40" t="n">
-        <v>13748</v>
+        <v>13667</v>
       </c>
     </row>
     <row r="41">
@@ -1447,23 +1447,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20.11.2020</t>
+          <t>21.11.2020</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>26941</v>
+        <v>27357</v>
       </c>
       <c r="D41" t="n">
-        <v>124909</v>
+        <v>126009</v>
       </c>
       <c r="E41" t="n">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="F41" t="n">
-        <v>12306</v>
+        <v>12762</v>
       </c>
       <c r="G41" t="n">
-        <v>13808</v>
+        <v>13748</v>
       </c>
     </row>
     <row r="42">
@@ -1472,23 +1472,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>19.11.2020</t>
+          <t>20.11.2020</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>26567</v>
+        <v>26941</v>
       </c>
       <c r="D42" t="n">
-        <v>123943</v>
+        <v>124909</v>
       </c>
       <c r="E42" t="n">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="F42" t="n">
-        <v>11474</v>
+        <v>12306</v>
       </c>
       <c r="G42" t="n">
-        <v>14291</v>
+        <v>13808</v>
       </c>
     </row>
     <row r="43">
@@ -1497,23 +1497,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18.11.2020</t>
+          <t>19.11.2020</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>26183</v>
+        <v>26567</v>
       </c>
       <c r="D43" t="n">
-        <v>122974</v>
+        <v>123943</v>
       </c>
       <c r="E43" t="n">
-        <v>775</v>
+        <v>802</v>
       </c>
       <c r="F43" t="n">
-        <v>11002</v>
+        <v>11474</v>
       </c>
       <c r="G43" t="n">
-        <v>14406</v>
+        <v>14291</v>
       </c>
     </row>
     <row r="44">
@@ -1522,23 +1522,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17.11.2020</t>
+          <t>18.11.2020</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25818</v>
+        <v>26183</v>
       </c>
       <c r="D44" t="n">
-        <v>121983</v>
+        <v>122974</v>
       </c>
       <c r="E44" t="n">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="F44" t="n">
-        <v>10542</v>
+        <v>11002</v>
       </c>
       <c r="G44" t="n">
-        <v>14527</v>
+        <v>14406</v>
       </c>
     </row>
     <row r="45">
@@ -1547,23 +1547,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16.11.2020</t>
+          <t>17.11.2020</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25456</v>
+        <v>25818</v>
       </c>
       <c r="D45" t="n">
-        <v>120954</v>
+        <v>121983</v>
       </c>
       <c r="E45" t="n">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="F45" t="n">
-        <v>10294</v>
+        <v>10542</v>
       </c>
       <c r="G45" t="n">
-        <v>14429</v>
+        <v>14527</v>
       </c>
     </row>
     <row r="46">
@@ -1572,23 +1572,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>15.11.2020</t>
+          <t>16.11.2020</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25160</v>
+        <v>25456</v>
       </c>
       <c r="D46" t="n">
-        <v>120070</v>
+        <v>120954</v>
       </c>
       <c r="E46" t="n">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="F46" t="n">
-        <v>10219</v>
+        <v>10294</v>
       </c>
       <c r="G46" t="n">
-        <v>14234</v>
+        <v>14429</v>
       </c>
     </row>
     <row r="47">
@@ -1597,23 +1597,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14.11.2020</t>
+          <t>15.11.2020</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>24969</v>
+        <v>25160</v>
       </c>
       <c r="D47" t="n">
-        <v>119258</v>
+        <v>120070</v>
       </c>
       <c r="E47" t="n">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="F47" t="n">
-        <v>10083</v>
+        <v>10219</v>
       </c>
       <c r="G47" t="n">
-        <v>14195</v>
+        <v>14234</v>
       </c>
     </row>
     <row r="48">
@@ -1622,23 +1622,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13.11.2020</t>
+          <t>14.11.2020</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>24582</v>
+        <v>24969</v>
       </c>
       <c r="D48" t="n">
-        <v>118107</v>
+        <v>119258</v>
       </c>
       <c r="E48" t="n">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="F48" t="n">
-        <v>9842</v>
+        <v>10083</v>
       </c>
       <c r="G48" t="n">
-        <v>14075</v>
+        <v>14195</v>
       </c>
     </row>
     <row r="49">
@@ -1647,23 +1647,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12.11.2020</t>
+          <t>13.11.2020</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>24071</v>
+        <v>24582</v>
       </c>
       <c r="D49" t="n">
-        <v>116848</v>
+        <v>118107</v>
       </c>
       <c r="E49" t="n">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="F49" t="n">
-        <v>9604</v>
+        <v>9842</v>
       </c>
       <c r="G49" t="n">
-        <v>13828</v>
+        <v>14075</v>
       </c>
     </row>
     <row r="50">
@@ -1672,23 +1672,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.11.2020</t>
+          <t>12.11.2020</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>23555</v>
+        <v>24071</v>
       </c>
       <c r="D50" t="n">
-        <v>115535</v>
+        <v>116848</v>
       </c>
       <c r="E50" t="n">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="F50" t="n">
-        <v>9380</v>
+        <v>9604</v>
       </c>
       <c r="G50" t="n">
-        <v>13562</v>
+        <v>13828</v>
       </c>
     </row>
     <row r="51">
@@ -1697,23 +1697,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10.11.2020</t>
+          <t>11.11.2020</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>23112</v>
+        <v>23555</v>
       </c>
       <c r="D51" t="n">
-        <v>114394</v>
+        <v>115535</v>
       </c>
       <c r="E51" t="n">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="F51" t="n">
-        <v>9178</v>
+        <v>9380</v>
       </c>
       <c r="G51" t="n">
-        <v>13358</v>
+        <v>13562</v>
       </c>
     </row>
     <row r="52">
@@ -1722,23 +1722,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09.11.2020</t>
+          <t>10.11.2020</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>22637</v>
+        <v>23112</v>
       </c>
       <c r="D52" t="n">
-        <v>113174</v>
+        <v>114394</v>
       </c>
       <c r="E52" t="n">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="F52" t="n">
-        <v>9031</v>
+        <v>9178</v>
       </c>
       <c r="G52" t="n">
-        <v>13046</v>
+        <v>13358</v>
       </c>
     </row>
     <row r="53">
@@ -1747,23 +1747,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>08.11.2020</t>
+          <t>09.11.2020</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>22254</v>
+        <v>22637</v>
       </c>
       <c r="D53" t="n">
-        <v>112291</v>
+        <v>113174</v>
       </c>
       <c r="E53" t="n">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="F53" t="n">
-        <v>8963</v>
+        <v>9031</v>
       </c>
       <c r="G53" t="n">
-        <v>12750</v>
+        <v>13046</v>
       </c>
     </row>
     <row r="54">
@@ -1772,23 +1772,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07.11.2020</t>
+          <t>08.11.2020</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>21717</v>
+        <v>22254</v>
       </c>
       <c r="D54" t="n">
-        <v>111175</v>
+        <v>112291</v>
       </c>
       <c r="E54" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F54" t="n">
-        <v>8856</v>
+        <v>8963</v>
       </c>
       <c r="G54" t="n">
-        <v>12328</v>
+        <v>12750</v>
       </c>
     </row>
     <row r="55">
@@ -1797,23 +1797,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>07.11.2020</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21108</v>
+        <v>21717</v>
       </c>
       <c r="D55" t="n">
-        <v>109897</v>
+        <v>111175</v>
       </c>
       <c r="E55" t="n">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="F55" t="n">
-        <v>8758</v>
+        <v>8856</v>
       </c>
       <c r="G55" t="n">
-        <v>11840</v>
+        <v>12328</v>
       </c>
     </row>
     <row r="56">
@@ -1822,23 +1822,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>05.11.2020</t>
+          <t>06.11.2020</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20519</v>
+        <v>21108</v>
       </c>
       <c r="D56" t="n">
-        <v>108739</v>
+        <v>109897</v>
       </c>
       <c r="E56" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="F56" t="n">
-        <v>8677</v>
+        <v>8758</v>
       </c>
       <c r="G56" t="n">
-        <v>11355</v>
+        <v>11840</v>
       </c>
     </row>
     <row r="57">
@@ -1847,23 +1847,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>04.11.2020</t>
+          <t>05.11.2020</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19897</v>
+        <v>20519</v>
       </c>
       <c r="D57" t="n">
-        <v>107362</v>
+        <v>108739</v>
       </c>
       <c r="E57" t="n">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="F57" t="n">
-        <v>8580</v>
+        <v>8677</v>
       </c>
       <c r="G57" t="n">
-        <v>10848</v>
+        <v>11355</v>
       </c>
     </row>
     <row r="58">
@@ -1872,23 +1872,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>03.11.2020</t>
+          <t>04.11.2020</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19397</v>
+        <v>19897</v>
       </c>
       <c r="D58" t="n">
-        <v>106372</v>
+        <v>107362</v>
       </c>
       <c r="E58" t="n">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="F58" t="n">
-        <v>8520</v>
+        <v>8580</v>
       </c>
       <c r="G58" t="n">
-        <v>10431</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="59">
@@ -1897,23 +1897,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>02.11.2020</t>
+          <t>03.11.2020</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18751</v>
+        <v>19397</v>
       </c>
       <c r="D59" t="n">
-        <v>105200</v>
+        <v>106372</v>
       </c>
       <c r="E59" t="n">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="F59" t="n">
-        <v>8459</v>
+        <v>8520</v>
       </c>
       <c r="G59" t="n">
-        <v>9862</v>
+        <v>10431</v>
       </c>
     </row>
     <row r="60">
@@ -1922,23 +1922,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>02.11.2020</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>18428</v>
+        <v>18751</v>
       </c>
       <c r="D60" t="n">
-        <v>104446</v>
+        <v>105200</v>
       </c>
       <c r="E60" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F60" t="n">
-        <v>8416</v>
+        <v>8459</v>
       </c>
       <c r="G60" t="n">
-        <v>9587</v>
+        <v>9862</v>
       </c>
     </row>
     <row r="61">
@@ -1947,23 +1947,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>31.10.2020</t>
+          <t>01.11.2020</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17846</v>
+        <v>18428</v>
       </c>
       <c r="D61" t="n">
-        <v>103396</v>
+        <v>104446</v>
       </c>
       <c r="E61" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="F61" t="n">
-        <v>8353</v>
+        <v>8416</v>
       </c>
       <c r="G61" t="n">
-        <v>9077</v>
+        <v>9587</v>
       </c>
     </row>
     <row r="62">
@@ -1972,23 +1972,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>30.10.2020</t>
+          <t>31.10.2020</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17004</v>
+        <v>17846</v>
       </c>
       <c r="D62" t="n">
-        <v>101784</v>
+        <v>103396</v>
       </c>
       <c r="E62" t="n">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F62" t="n">
-        <v>8278</v>
+        <v>8353</v>
       </c>
       <c r="G62" t="n">
-        <v>8317</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="63">
@@ -1997,23 +1997,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>29.10.2020</t>
+          <t>30.10.2020</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16356</v>
+        <v>17004</v>
       </c>
       <c r="D63" t="n">
-        <v>100581</v>
+        <v>101784</v>
       </c>
       <c r="E63" t="n">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F63" t="n">
-        <v>8194</v>
+        <v>8278</v>
       </c>
       <c r="G63" t="n">
-        <v>7762</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="64">
@@ -2022,23 +2022,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>28.10.2020</t>
+          <t>29.10.2020</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15707</v>
+        <v>16356</v>
       </c>
       <c r="D64" t="n">
-        <v>99239</v>
+        <v>100581</v>
       </c>
       <c r="E64" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F64" t="n">
-        <v>8125</v>
+        <v>8194</v>
       </c>
       <c r="G64" t="n">
-        <v>7191</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="65">
@@ -2047,23 +2047,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>27.10.2020</t>
+          <t>28.10.2020</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15077</v>
+        <v>15707</v>
       </c>
       <c r="D65" t="n">
-        <v>97871</v>
+        <v>99239</v>
       </c>
       <c r="E65" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F65" t="n">
-        <v>8037</v>
+        <v>8125</v>
       </c>
       <c r="G65" t="n">
-        <v>6663</v>
+        <v>7191</v>
       </c>
     </row>
     <row r="66">
@@ -2072,23 +2072,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>26.10.2020</t>
+          <t>27.10.2020</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>14452</v>
+        <v>15077</v>
       </c>
       <c r="D66" t="n">
-        <v>96588</v>
+        <v>97871</v>
       </c>
       <c r="E66" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F66" t="n">
-        <v>7952</v>
+        <v>8037</v>
       </c>
       <c r="G66" t="n">
-        <v>6128</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="67">
@@ -2097,23 +2097,23 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>26.10.2020</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14134</v>
+        <v>14452</v>
       </c>
       <c r="D67" t="n">
-        <v>95726</v>
+        <v>96588</v>
       </c>
       <c r="E67" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F67" t="n">
-        <v>7900</v>
+        <v>7952</v>
       </c>
       <c r="G67" t="n">
-        <v>5867</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="68">
@@ -2122,23 +2122,23 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>24.10.2020</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>13731</v>
+        <v>14134</v>
       </c>
       <c r="D68" t="n">
-        <v>95009</v>
+        <v>95726</v>
       </c>
       <c r="E68" t="n">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F68" t="n">
-        <v>7812</v>
+        <v>7900</v>
       </c>
       <c r="G68" t="n">
-        <v>5559</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="69">
@@ -2147,23 +2147,23 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>23.10.2020</t>
+          <t>24.10.2020</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13149</v>
+        <v>13731</v>
       </c>
       <c r="D69" t="n">
-        <v>93835</v>
+        <v>95009</v>
       </c>
       <c r="E69" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F69" t="n">
-        <v>7720</v>
+        <v>7812</v>
       </c>
       <c r="G69" t="n">
-        <v>5076</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="70">
@@ -2172,23 +2172,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>22.10.2020</t>
+          <t>23.10.2020</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>12712</v>
+        <v>13149</v>
       </c>
       <c r="D70" t="n">
-        <v>92826</v>
+        <v>93835</v>
       </c>
       <c r="E70" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F70" t="n">
-        <v>7631</v>
+        <v>7720</v>
       </c>
       <c r="G70" t="n">
-        <v>4733</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="71">
@@ -2197,23 +2197,23 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>21.10.2020</t>
+          <t>22.10.2020</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12325</v>
+        <v>12712</v>
       </c>
       <c r="D71" t="n">
-        <v>91892</v>
+        <v>92826</v>
       </c>
       <c r="E71" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F71" t="n">
-        <v>7548</v>
+        <v>7631</v>
       </c>
       <c r="G71" t="n">
-        <v>4432</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="72">
@@ -2222,23 +2222,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>20.10.2020</t>
+          <t>21.10.2020</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>12057</v>
+        <v>12325</v>
       </c>
       <c r="D72" t="n">
-        <v>94270</v>
+        <v>91892</v>
       </c>
       <c r="E72" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F72" t="n">
-        <v>7510</v>
+        <v>7548</v>
       </c>
       <c r="G72" t="n">
-        <v>4204</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="73">
@@ -2247,23 +2247,23 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>19.10.2020</t>
+          <t>20.10.2020</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>11812</v>
+        <v>12057</v>
       </c>
       <c r="D73" t="n">
-        <v>90394</v>
+        <v>94270</v>
       </c>
       <c r="E73" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F73" t="n">
-        <v>7495</v>
+        <v>7510</v>
       </c>
       <c r="G73" t="n">
-        <v>3978</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="74">
@@ -2272,23 +2272,23 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.10.2020</t>
+          <t>19.10.2020</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>11154</v>
+        <v>11812</v>
       </c>
       <c r="D74" t="n">
-        <v>88364</v>
+        <v>90394</v>
       </c>
       <c r="E74" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F74" t="n">
-        <v>7332</v>
+        <v>7495</v>
       </c>
       <c r="G74" t="n">
-        <v>3488</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="75">
@@ -2297,23 +2297,23 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>15.10.2020</t>
+          <t>16.10.2020</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>10912</v>
+        <v>11154</v>
       </c>
       <c r="D75" t="n">
-        <v>87666</v>
+        <v>88364</v>
       </c>
       <c r="E75" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F75" t="n">
-        <v>7255</v>
+        <v>7332</v>
       </c>
       <c r="G75" t="n">
-        <v>3325</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="76">
@@ -2322,23 +2322,23 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14.10.2020</t>
+          <t>15.10.2020</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10731</v>
+        <v>10912</v>
       </c>
       <c r="D76" t="n">
-        <v>87035</v>
+        <v>87666</v>
       </c>
       <c r="E76" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F76" t="n">
-        <v>7195</v>
+        <v>7255</v>
       </c>
       <c r="G76" t="n">
-        <v>3208</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="77">
@@ -2347,23 +2347,23 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>13.10.2020</t>
+          <t>14.10.2020</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>10590</v>
+        <v>10731</v>
       </c>
       <c r="D77" t="n">
-        <v>86416</v>
+        <v>87035</v>
       </c>
       <c r="E77" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F77" t="n">
-        <v>7123</v>
+        <v>7195</v>
       </c>
       <c r="G77" t="n">
-        <v>3142</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="78">
@@ -2372,23 +2372,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12.10.2020</t>
+          <t>13.10.2020</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>10484</v>
+        <v>10590</v>
       </c>
       <c r="D78" t="n">
-        <v>85938</v>
+        <v>86416</v>
       </c>
       <c r="E78" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F78" t="n">
-        <v>7037</v>
+        <v>7123</v>
       </c>
       <c r="G78" t="n">
-        <v>3123</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="79">
@@ -2397,23 +2397,23 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>09.10.2020</t>
+          <t>12.10.2020</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>10130</v>
+        <v>10484</v>
       </c>
       <c r="D79" t="n">
-        <v>84326</v>
+        <v>85938</v>
       </c>
       <c r="E79" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F79" t="n">
-        <v>6850</v>
+        <v>7037</v>
       </c>
       <c r="G79" t="n">
-        <v>2959</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="80">
@@ -2422,23 +2422,23 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08.10.2020</t>
+          <t>09.10.2020</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10003</v>
+        <v>10130</v>
       </c>
       <c r="D80" t="n">
-        <v>83689</v>
+        <v>84326</v>
       </c>
       <c r="E80" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F80" t="n">
-        <v>6732</v>
+        <v>6850</v>
       </c>
       <c r="G80" t="n">
-        <v>2953</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="81">
@@ -2447,23 +2447,23 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>07.10.2020</t>
+          <t>08.10.2020</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9848</v>
+        <v>10003</v>
       </c>
       <c r="D81" t="n">
-        <v>83083</v>
+        <v>83689</v>
       </c>
       <c r="E81" t="n">
         <v>318</v>
       </c>
       <c r="F81" t="n">
-        <v>6670</v>
+        <v>6732</v>
       </c>
       <c r="G81" t="n">
-        <v>2860</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="82">
@@ -2472,23 +2472,23 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>07.10.2020</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>9706</v>
+        <v>9848</v>
       </c>
       <c r="D82" t="n">
-        <v>82443</v>
+        <v>83083</v>
       </c>
       <c r="E82" t="n">
         <v>318</v>
       </c>
       <c r="F82" t="n">
-        <v>6596</v>
+        <v>6670</v>
       </c>
       <c r="G82" t="n">
-        <v>2792</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="83">
@@ -2497,23 +2497,23 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>05.10.2020</t>
+          <t>06.10.2020</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9643</v>
+        <v>9706</v>
       </c>
       <c r="D83" t="n">
-        <v>82031</v>
+        <v>82443</v>
       </c>
       <c r="E83" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F83" t="n">
-        <v>6544</v>
+        <v>6596</v>
       </c>
       <c r="G83" t="n">
-        <v>2785</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="84">
@@ -2522,23 +2522,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>02.10.2020</t>
+          <t>05.10.2020</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>9470</v>
+        <v>9643</v>
       </c>
       <c r="D84" t="n">
-        <v>80698</v>
+        <v>82031</v>
       </c>
       <c r="E84" t="n">
         <v>314</v>
       </c>
       <c r="F84" t="n">
-        <v>6425</v>
+        <v>6544</v>
       </c>
       <c r="G84" t="n">
-        <v>2731</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="85">
@@ -2547,23 +2547,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01.10.2020</t>
+          <t>02.10.2020</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9406</v>
+        <v>9470</v>
       </c>
       <c r="D85" t="n">
-        <v>80166</v>
+        <v>80698</v>
       </c>
       <c r="E85" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F85" t="n">
-        <v>6373</v>
+        <v>6425</v>
       </c>
       <c r="G85" t="n">
-        <v>2722</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="86">
@@ -2572,23 +2572,23 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>30.09.2020</t>
+          <t>01.10.2020</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>9318</v>
+        <v>9406</v>
       </c>
       <c r="D86" t="n">
-        <v>79612</v>
+        <v>80166</v>
       </c>
       <c r="E86" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F86" t="n">
-        <v>6295</v>
+        <v>6373</v>
       </c>
       <c r="G86" t="n">
-        <v>2714</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="87">
@@ -2597,23 +2597,23 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>29.09.2020</t>
+          <t>30.09.2020</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>9267</v>
+        <v>9318</v>
       </c>
       <c r="D87" t="n">
-        <v>79091</v>
+        <v>79612</v>
       </c>
       <c r="E87" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F87" t="n">
-        <v>6266</v>
+        <v>6295</v>
       </c>
       <c r="G87" t="n">
-        <v>2694</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="88">
@@ -2622,23 +2622,23 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>28.09.2020</t>
+          <t>29.09.2020</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>9197</v>
+        <v>9267</v>
       </c>
       <c r="D88" t="n">
-        <v>78557</v>
+        <v>79091</v>
       </c>
       <c r="E88" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F88" t="n">
-        <v>6200</v>
+        <v>6266</v>
       </c>
       <c r="G88" t="n">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="89">
@@ -2647,23 +2647,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>25.09.2020</t>
+          <t>28.09.2020</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>9048</v>
+        <v>9197</v>
       </c>
       <c r="D89" t="n">
-        <v>77205</v>
+        <v>78557</v>
       </c>
       <c r="E89" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F89" t="n">
-        <v>6030</v>
+        <v>6200</v>
       </c>
       <c r="G89" t="n">
-        <v>2722</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="90">
@@ -2672,23 +2672,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>24.09.2020</t>
+          <t>25.09.2020</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8976</v>
+        <v>9048</v>
       </c>
       <c r="D90" t="n">
-        <v>76717</v>
+        <v>77205</v>
       </c>
       <c r="E90" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F90" t="n">
-        <v>5948</v>
+        <v>6030</v>
       </c>
       <c r="G90" t="n">
-        <v>2734</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="91">
@@ -2697,23 +2697,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>23.09.2020</t>
+          <t>24.09.2020</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>8895</v>
+        <v>8976</v>
       </c>
       <c r="D91" t="n">
-        <v>76197</v>
+        <v>76717</v>
       </c>
       <c r="E91" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F91" t="n">
-        <v>5833</v>
+        <v>5948</v>
       </c>
       <c r="G91" t="n">
-        <v>2769</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="92">
@@ -2722,23 +2722,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>22.09.2020</t>
+          <t>23.09.2020</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8822</v>
+        <v>8895</v>
       </c>
       <c r="D92" t="n">
-        <v>75591</v>
+        <v>76197</v>
       </c>
       <c r="E92" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F92" t="n">
-        <v>5739</v>
+        <v>5833</v>
       </c>
       <c r="G92" t="n">
-        <v>2791</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="93">
@@ -2747,23 +2747,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>21.09.2020</t>
+          <t>22.09.2020</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8771</v>
+        <v>8822</v>
       </c>
       <c r="D93" t="n">
-        <v>75158</v>
+        <v>75591</v>
       </c>
       <c r="E93" t="n">
         <v>292</v>
       </c>
       <c r="F93" t="n">
-        <v>5681</v>
+        <v>5739</v>
       </c>
       <c r="G93" t="n">
-        <v>2798</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="94">
@@ -2772,23 +2772,23 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>18.09.2020</t>
+          <t>21.09.2020</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>8609</v>
+        <v>8771</v>
       </c>
       <c r="D94" t="n">
-        <v>73612</v>
+        <v>75158</v>
       </c>
       <c r="E94" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F94" t="n">
-        <v>5491</v>
+        <v>5681</v>
       </c>
       <c r="G94" t="n">
-        <v>2833</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="95">
@@ -2797,23 +2797,23 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>17.09.2020</t>
+          <t>18.09.2020</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>8511</v>
+        <v>8609</v>
       </c>
       <c r="D95" t="n">
-        <v>72994</v>
+        <v>73612</v>
       </c>
       <c r="E95" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F95" t="n">
-        <v>5431</v>
+        <v>5491</v>
       </c>
       <c r="G95" t="n">
-        <v>2796</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="96">
@@ -2822,23 +2822,23 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16.09.2020</t>
+          <t>17.09.2020</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8414</v>
+        <v>8511</v>
       </c>
       <c r="D96" t="n">
-        <v>72378</v>
+        <v>72994</v>
       </c>
       <c r="E96" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F96" t="n">
-        <v>5375</v>
+        <v>5431</v>
       </c>
       <c r="G96" t="n">
-        <v>2758</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="97">
@@ -2847,23 +2847,23 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>15.09.2020</t>
+          <t>16.09.2020</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8340</v>
+        <v>8414</v>
       </c>
       <c r="D97" t="n">
-        <v>71819</v>
+        <v>72378</v>
       </c>
       <c r="E97" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F97" t="n">
-        <v>5337</v>
+        <v>5375</v>
       </c>
       <c r="G97" t="n">
-        <v>2724</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="98">
@@ -2872,23 +2872,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>14.09.2020</t>
+          <t>15.09.2020</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8283</v>
+        <v>8340</v>
       </c>
       <c r="D98" t="n">
-        <v>71391</v>
+        <v>71819</v>
       </c>
       <c r="E98" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F98" t="n">
-        <v>5290</v>
+        <v>5337</v>
       </c>
       <c r="G98" t="n">
-        <v>2716</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="99">
@@ -2897,23 +2897,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>11.09.2020</t>
+          <t>14.09.2020</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8132</v>
+        <v>8283</v>
       </c>
       <c r="D99" t="n">
-        <v>70064</v>
+        <v>71391</v>
       </c>
       <c r="E99" t="n">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F99" t="n">
-        <v>5131</v>
+        <v>5290</v>
       </c>
       <c r="G99" t="n">
-        <v>2733</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="100">
@@ -2922,23 +2922,23 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>10.09.2020</t>
+          <t>11.09.2020</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8037</v>
+        <v>8132</v>
       </c>
       <c r="D100" t="n">
-        <v>69528</v>
+        <v>70064</v>
       </c>
       <c r="E100" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F100" t="n">
-        <v>5044</v>
+        <v>5131</v>
       </c>
       <c r="G100" t="n">
-        <v>2728</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="101">
@@ -2947,23 +2947,23 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>09.09.2020</t>
+          <t>10.09.2020</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7964</v>
+        <v>8037</v>
       </c>
       <c r="D101" t="n">
-        <v>69047</v>
+        <v>69528</v>
       </c>
       <c r="E101" t="n">
         <v>265</v>
       </c>
       <c r="F101" t="n">
-        <v>4980</v>
+        <v>5044</v>
       </c>
       <c r="G101" t="n">
-        <v>2719</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="102">
@@ -2972,23 +2972,23 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>08.09.2020</t>
+          <t>09.09.2020</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7874</v>
+        <v>7964</v>
       </c>
       <c r="D102" t="n">
-        <v>68476</v>
+        <v>69047</v>
       </c>
       <c r="E102" t="n">
         <v>265</v>
       </c>
       <c r="F102" t="n">
-        <v>4944</v>
+        <v>4980</v>
       </c>
       <c r="G102" t="n">
-        <v>2665</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="103">
@@ -2997,23 +2997,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>07.09.2020</t>
+          <t>08.09.2020</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7802</v>
+        <v>7874</v>
       </c>
       <c r="D103" t="n">
-        <v>68065</v>
+        <v>68476</v>
       </c>
       <c r="E103" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F103" t="n">
-        <v>4879</v>
+        <v>4944</v>
       </c>
       <c r="G103" t="n">
-        <v>2659</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="104">
@@ -3022,23 +3022,23 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>05.09.2020</t>
+          <t>07.09.2020</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7726</v>
+        <v>7802</v>
       </c>
       <c r="D104" t="n">
-        <v>67345</v>
+        <v>68065</v>
       </c>
       <c r="E104" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F104" t="n">
-        <v>4742</v>
+        <v>4879</v>
       </c>
       <c r="G104" t="n">
-        <v>2723</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="105">
@@ -3047,23 +3047,23 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>04.09.2020</t>
+          <t>05.09.2020</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7657</v>
+        <v>7726</v>
       </c>
       <c r="D105" t="n">
-        <v>66799</v>
+        <v>67345</v>
       </c>
       <c r="E105" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F105" t="n">
-        <v>4628</v>
+        <v>4742</v>
       </c>
       <c r="G105" t="n">
-        <v>2774</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="106">
@@ -3072,23 +3072,23 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>03.09.2020</t>
+          <t>04.09.2020</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7584</v>
+        <v>7657</v>
       </c>
       <c r="D106" t="n">
-        <v>66264</v>
+        <v>66799</v>
       </c>
       <c r="E106" t="n">
         <v>255</v>
       </c>
       <c r="F106" t="n">
-        <v>4532</v>
+        <v>4628</v>
       </c>
       <c r="G106" t="n">
-        <v>2797</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="107">
@@ -3097,23 +3097,23 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>02.09.2020</t>
+          <t>03.09.2020</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7507</v>
+        <v>7584</v>
       </c>
       <c r="D107" t="n">
-        <v>65812</v>
+        <v>66264</v>
       </c>
       <c r="E107" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F107" t="n">
-        <v>4460</v>
+        <v>4532</v>
       </c>
       <c r="G107" t="n">
-        <v>2793</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="108">
@@ -3122,23 +3122,23 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>01.09.2020</t>
+          <t>02.09.2020</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>7464</v>
+        <v>7507</v>
       </c>
       <c r="D108" t="n">
-        <v>65272</v>
+        <v>65812</v>
       </c>
       <c r="E108" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F108" t="n">
-        <v>4403</v>
+        <v>4460</v>
       </c>
       <c r="G108" t="n">
-        <v>2810</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="109">
@@ -3147,23 +3147,23 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>31.08.2020</t>
+          <t>01.09.2020</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7387</v>
+        <v>7464</v>
       </c>
       <c r="D109" t="n">
-        <v>64813</v>
+        <v>65272</v>
       </c>
       <c r="E109" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F109" t="n">
-        <v>4349</v>
+        <v>4403</v>
       </c>
       <c r="G109" t="n">
-        <v>2791</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="110">
@@ -3172,23 +3172,23 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>30.08.2020</t>
+          <t>31.08.2020</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7330</v>
+        <v>7387</v>
       </c>
       <c r="D110" t="n">
-        <v>64202</v>
+        <v>64813</v>
       </c>
       <c r="E110" t="n">
         <v>247</v>
       </c>
       <c r="F110" t="n">
-        <v>4294</v>
+        <v>4349</v>
       </c>
       <c r="G110" t="n">
-        <v>2789</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="111">
@@ -3197,23 +3197,23 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>29.08.2020</t>
+          <t>30.08.2020</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>7257</v>
+        <v>7330</v>
       </c>
       <c r="D111" t="n">
-        <v>63909</v>
+        <v>64202</v>
       </c>
       <c r="E111" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F111" t="n">
-        <v>4254</v>
+        <v>4294</v>
       </c>
       <c r="G111" t="n">
-        <v>2758</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="112">
@@ -3222,23 +3222,23 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>28.08.2020</t>
+          <t>29.08.2020</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>7168</v>
+        <v>7257</v>
       </c>
       <c r="D112" t="n">
-        <v>63382</v>
+        <v>63909</v>
       </c>
       <c r="E112" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F112" t="n">
-        <v>4214</v>
+        <v>4254</v>
       </c>
       <c r="G112" t="n">
-        <v>2710</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="113">
@@ -3247,23 +3247,23 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>27.08.2020</t>
+          <t>28.08.2020</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7089</v>
+        <v>7168</v>
       </c>
       <c r="D113" t="n">
-        <v>62851</v>
+        <v>63382</v>
       </c>
       <c r="E113" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F113" t="n">
-        <v>4179</v>
+        <v>4214</v>
       </c>
       <c r="G113" t="n">
-        <v>2668</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="114">
@@ -3272,22 +3272,24 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>26.08.2020</t>
+          <t>27.08.2020</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7018</v>
+        <v>7089</v>
       </c>
       <c r="D114" t="n">
-        <v>62270</v>
+        <v>62851</v>
       </c>
       <c r="E114" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F114" t="n">
-        <v>4144</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
+        <v>4179</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2668</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3295,20 +3297,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>25.08.2020</t>
+          <t>26.08.2020</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6945</v>
+        <v>7018</v>
       </c>
       <c r="D115" t="n">
-        <v>61845</v>
+        <v>62270</v>
       </c>
       <c r="E115" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F115" t="n">
-        <v>4090</v>
+        <v>4144</v>
       </c>
       <c r="G115" t="inlineStr"/>
     </row>
@@ -3318,20 +3320,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>24.08.2020</t>
+          <t>25.08.2020</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6886</v>
+        <v>6945</v>
       </c>
       <c r="D116" t="n">
-        <v>61411</v>
+        <v>61845</v>
       </c>
       <c r="E116" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F116" t="n">
-        <v>4034</v>
+        <v>4090</v>
       </c>
       <c r="G116" t="inlineStr"/>
     </row>
@@ -3341,20 +3343,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>20.08.2020</t>
+          <t>24.08.2020</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6509</v>
+        <v>6886</v>
       </c>
       <c r="D117" t="n">
-        <v>59294</v>
+        <v>61411</v>
       </c>
       <c r="E117" t="n">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F117" t="n">
-        <v>3948</v>
+        <v>4034</v>
       </c>
       <c r="G117" t="inlineStr"/>
     </row>
@@ -3364,20 +3366,20 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>19.08.2020</t>
+          <t>20.08.2020</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6363</v>
+        <v>6509</v>
       </c>
       <c r="D118" t="n">
-        <v>58673</v>
+        <v>59294</v>
       </c>
       <c r="E118" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F118" t="n">
-        <v>3867</v>
+        <v>3948</v>
       </c>
       <c r="G118" t="inlineStr"/>
     </row>
@@ -3387,20 +3389,20 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>18.08.2020</t>
+          <t>19.08.2020</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6257</v>
+        <v>6363</v>
       </c>
       <c r="D119" t="n">
-        <v>58221</v>
+        <v>58673</v>
       </c>
       <c r="E119" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F119" t="n">
-        <v>3730</v>
+        <v>3867</v>
       </c>
       <c r="G119" t="inlineStr"/>
     </row>
@@ -3410,20 +3412,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>17.08.2020</t>
+          <t>18.08.2020</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6186</v>
+        <v>6257</v>
       </c>
       <c r="D120" t="n">
-        <v>57807</v>
+        <v>58221</v>
       </c>
       <c r="E120" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F120" t="n">
-        <v>3661</v>
+        <v>3730</v>
       </c>
       <c r="G120" t="inlineStr"/>
     </row>
@@ -3433,20 +3435,20 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>14.08.2020</t>
+          <t>17.08.2020</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5974</v>
+        <v>6186</v>
       </c>
       <c r="D121" t="n">
-        <v>56790</v>
+        <v>57807</v>
       </c>
       <c r="E121" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F121" t="n">
-        <v>3548</v>
+        <v>3661</v>
       </c>
       <c r="G121" t="inlineStr"/>
     </row>
@@ -3456,20 +3458,20 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>13.08.2020</t>
+          <t>14.08.2020</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5867</v>
+        <v>5974</v>
       </c>
       <c r="D122" t="n">
-        <v>56280</v>
+        <v>56790</v>
       </c>
       <c r="E122" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F122" t="n">
-        <v>3496</v>
+        <v>3548</v>
       </c>
       <c r="G122" t="inlineStr"/>
     </row>
@@ -3479,20 +3481,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>12.08.2020</t>
+          <t>13.08.2020</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5788</v>
+        <v>5867</v>
       </c>
       <c r="D123" t="n">
-        <v>55855</v>
+        <v>56280</v>
       </c>
       <c r="E123" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F123" t="n">
-        <v>3350</v>
+        <v>3496</v>
       </c>
       <c r="G123" t="inlineStr"/>
     </row>
@@ -3502,20 +3504,20 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>11.08.2020</t>
+          <t>12.08.2020</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5694</v>
+        <v>5788</v>
       </c>
       <c r="D124" t="n">
-        <v>55356</v>
+        <v>55855</v>
       </c>
       <c r="E124" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F124" t="n">
-        <v>3243</v>
+        <v>3350</v>
       </c>
       <c r="G124" t="inlineStr"/>
     </row>
@@ -3525,20 +3527,20 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>10.08.2020</t>
+          <t>11.08.2020</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5647</v>
+        <v>5694</v>
       </c>
       <c r="D125" t="n">
-        <v>54711</v>
+        <v>55356</v>
       </c>
       <c r="E125" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F125" t="n">
-        <v>3194</v>
+        <v>3243</v>
       </c>
       <c r="G125" t="inlineStr"/>
     </row>
@@ -3548,20 +3550,20 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>07.08.2020</t>
+          <t>10.08.2020</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5429</v>
+        <v>5647</v>
       </c>
       <c r="D126" t="n">
-        <v>53526</v>
+        <v>54711</v>
       </c>
       <c r="E126" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F126" t="n">
-        <v>3009</v>
+        <v>3194</v>
       </c>
       <c r="G126" t="inlineStr"/>
     </row>
@@ -3571,20 +3573,20 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>07.08.2020</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5345</v>
+        <v>5429</v>
       </c>
       <c r="D127" t="n">
-        <v>53239</v>
+        <v>53526</v>
       </c>
       <c r="E127" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F127" t="n">
-        <v>2920</v>
+        <v>3009</v>
       </c>
       <c r="G127" t="inlineStr"/>
     </row>
@@ -3594,20 +3596,20 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>05.08.2020</t>
+          <t>06.08.2020</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5227</v>
+        <v>5345</v>
       </c>
       <c r="D128" t="n">
-        <v>52759</v>
+        <v>53239</v>
       </c>
       <c r="E128" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F128" t="n">
-        <v>2830</v>
+        <v>2920</v>
       </c>
       <c r="G128" t="inlineStr"/>
     </row>
@@ -3617,20 +3619,20 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>04.08.2020</t>
+          <t>05.08.2020</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5136</v>
+        <v>5227</v>
       </c>
       <c r="D129" t="n">
-        <v>52365</v>
+        <v>52759</v>
       </c>
       <c r="E129" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F129" t="n">
-        <v>2760</v>
+        <v>2830</v>
       </c>
       <c r="G129" t="inlineStr"/>
     </row>
@@ -3640,20 +3642,20 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>03.08.2020</t>
+          <t>04.08.2020</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>5060</v>
+        <v>5136</v>
       </c>
       <c r="D130" t="n">
-        <v>51870</v>
+        <v>52365</v>
       </c>
       <c r="E130" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F130" t="n">
-        <v>2711</v>
+        <v>2760</v>
       </c>
       <c r="G130" t="inlineStr"/>
     </row>
@@ -3663,20 +3665,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>31.07.2020</t>
+          <t>03.08.2020</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4842</v>
+        <v>5060</v>
       </c>
       <c r="D131" t="n">
-        <v>50361</v>
+        <v>51870</v>
       </c>
       <c r="E131" t="n">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F131" t="n">
-        <v>2411</v>
+        <v>2711</v>
       </c>
       <c r="G131" t="inlineStr"/>
     </row>
@@ -3686,20 +3688,20 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>30.07.2020</t>
+          <t>31.07.2020</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4719</v>
+        <v>4842</v>
       </c>
       <c r="D132" t="n">
-        <v>49824</v>
+        <v>50361</v>
       </c>
       <c r="E132" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F132" t="n">
-        <v>2290</v>
+        <v>2411</v>
       </c>
       <c r="G132" t="inlineStr"/>
     </row>
@@ -3709,20 +3711,20 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>29.07.2020</t>
+          <t>30.07.2020</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4624</v>
+        <v>4719</v>
       </c>
       <c r="D133" t="n">
-        <v>49248</v>
+        <v>49824</v>
       </c>
       <c r="E133" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F133" t="n">
-        <v>2224</v>
+        <v>2290</v>
       </c>
       <c r="G133" t="inlineStr"/>
     </row>
@@ -3732,20 +3734,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>28.07.2020</t>
+          <t>29.07.2020</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4488</v>
+        <v>4624</v>
       </c>
       <c r="D134" t="n">
-        <v>48589</v>
+        <v>49248</v>
       </c>
       <c r="E134" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F134" t="n">
-        <v>2180</v>
+        <v>2224</v>
       </c>
       <c r="G134" t="inlineStr"/>
     </row>
@@ -3755,20 +3757,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>27.07.2020</t>
+          <t>28.07.2020</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4422</v>
+        <v>4488</v>
       </c>
       <c r="D135" t="n">
-        <v>48216</v>
+        <v>48589</v>
       </c>
       <c r="E135" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F135" t="n">
-        <v>2157</v>
+        <v>2180</v>
       </c>
       <c r="G135" t="inlineStr"/>
     </row>
@@ -3778,20 +3780,20 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>24.07.2020</t>
+          <t>27.07.2020</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4169</v>
+        <v>4422</v>
       </c>
       <c r="D136" t="n">
-        <v>46787</v>
+        <v>48216</v>
       </c>
       <c r="E136" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F136" t="n">
-        <v>2014</v>
+        <v>2157</v>
       </c>
       <c r="G136" t="inlineStr"/>
     </row>
@@ -3801,20 +3803,20 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>23.07.2020</t>
+          <t>24.07.2020</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4044</v>
+        <v>4169</v>
       </c>
       <c r="D137" t="n">
-        <v>46300</v>
+        <v>46787</v>
       </c>
       <c r="E137" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F137" t="n">
-        <v>1965</v>
+        <v>2014</v>
       </c>
       <c r="G137" t="inlineStr"/>
     </row>
@@ -3824,20 +3826,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>22.07.2020</t>
+          <t>23.07.2020</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3898</v>
+        <v>4044</v>
       </c>
       <c r="D138" t="n">
-        <v>45666</v>
+        <v>46300</v>
       </c>
       <c r="E138" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F138" t="n">
-        <v>1916</v>
+        <v>1965</v>
       </c>
       <c r="G138" t="inlineStr"/>
     </row>
@@ -3847,20 +3849,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>21.07.2020</t>
+          <t>22.07.2020</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3764</v>
+        <v>3898</v>
       </c>
       <c r="D139" t="n">
-        <v>45026</v>
+        <v>45666</v>
       </c>
       <c r="E139" t="n">
         <v>149</v>
       </c>
       <c r="F139" t="n">
-        <v>1868</v>
+        <v>1916</v>
       </c>
       <c r="G139" t="inlineStr"/>
     </row>
@@ -3870,20 +3872,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>17.07.2020</t>
+          <t>21.07.2020</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3521</v>
+        <v>3764</v>
       </c>
       <c r="D140" t="n">
-        <v>43552</v>
+        <v>45026</v>
       </c>
       <c r="E140" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F140" t="n">
-        <v>1778</v>
+        <v>1868</v>
       </c>
       <c r="G140" t="inlineStr"/>
     </row>
@@ -3893,20 +3895,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>15.07.2020</t>
+          <t>17.07.2020</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3340</v>
+        <v>3521</v>
       </c>
       <c r="D141" t="n">
-        <v>42581</v>
+        <v>43552</v>
       </c>
       <c r="E141" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F141" t="n">
-        <v>1710</v>
+        <v>1778</v>
       </c>
       <c r="G141" t="inlineStr"/>
     </row>
@@ -3916,20 +3918,20 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>13.07.2020</t>
+          <t>15.07.2020</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3204</v>
+        <v>3340</v>
       </c>
       <c r="D142" t="n">
-        <v>41891</v>
+        <v>42581</v>
       </c>
       <c r="E142" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F142" t="n">
-        <v>1663</v>
+        <v>1710</v>
       </c>
       <c r="G142" t="inlineStr"/>
     </row>
@@ -3939,20 +3941,20 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10.07.2020</t>
+          <t>13.07.2020</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3032</v>
+        <v>3204</v>
       </c>
       <c r="D143" t="n">
-        <v>40970</v>
+        <v>41891</v>
       </c>
       <c r="E143" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F143" t="n">
-        <v>1591</v>
+        <v>1663</v>
       </c>
       <c r="G143" t="inlineStr"/>
     </row>
@@ -3962,20 +3964,20 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>09.07.2020</t>
+          <t>10.07.2020</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2918</v>
+        <v>3032</v>
       </c>
       <c r="D144" t="n">
-        <v>40395</v>
+        <v>40970</v>
       </c>
       <c r="E144" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F144" t="n">
-        <v>1468</v>
+        <v>1591</v>
       </c>
       <c r="G144" t="inlineStr"/>
     </row>
@@ -3985,20 +3987,20 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>08.07.2020</t>
+          <t>09.07.2020</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2813</v>
+        <v>2918</v>
       </c>
       <c r="D145" t="n">
-        <v>39825</v>
+        <v>40395</v>
       </c>
       <c r="E145" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F145" t="n">
-        <v>1425</v>
+        <v>1468</v>
       </c>
       <c r="G145" t="inlineStr"/>
     </row>
@@ -4008,20 +4010,20 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>07.07.2020</t>
+          <t>08.07.2020</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2692</v>
+        <v>2813</v>
       </c>
       <c r="D146" t="n">
-        <v>39296</v>
+        <v>39825</v>
       </c>
       <c r="E146" t="n">
         <v>134</v>
       </c>
       <c r="F146" t="n">
-        <v>1402</v>
+        <v>1425</v>
       </c>
       <c r="G146" t="inlineStr"/>
     </row>
@@ -4031,20 +4033,20 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>06.07.2020</t>
+          <t>07.07.2020</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2609</v>
+        <v>2692</v>
       </c>
       <c r="D147" t="n">
-        <v>38982</v>
+        <v>39296</v>
       </c>
       <c r="E147" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F147" t="n">
-        <v>1380</v>
+        <v>1402</v>
       </c>
       <c r="G147" t="inlineStr"/>
     </row>
@@ -4054,20 +4056,20 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>03.07.2020</t>
+          <t>06.07.2020</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2451</v>
+        <v>2609</v>
       </c>
       <c r="D148" t="n">
-        <v>38021</v>
+        <v>38982</v>
       </c>
       <c r="E148" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F148" t="n">
-        <v>1350</v>
+        <v>1380</v>
       </c>
       <c r="G148" t="inlineStr"/>
     </row>
@@ -4077,20 +4079,20 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>02.07.2020</t>
+          <t>03.07.2020</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2372</v>
+        <v>2451</v>
       </c>
       <c r="D149" t="n">
-        <v>37575</v>
+        <v>38021</v>
       </c>
       <c r="E149" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F149" t="n">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="G149" t="inlineStr"/>
     </row>
@@ -4100,20 +4102,20 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>01.07.2020</t>
+          <t>02.07.2020</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2314</v>
+        <v>2372</v>
       </c>
       <c r="D150" t="n">
-        <v>37278</v>
+        <v>37575</v>
       </c>
       <c r="E150" t="n">
         <v>125</v>
       </c>
       <c r="F150" t="n">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="G150" t="inlineStr"/>
     </row>
@@ -4123,20 +4125,20 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>30.06.2020</t>
+          <t>01.07.2020</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2272</v>
+        <v>2314</v>
       </c>
       <c r="D151" t="n">
-        <v>36888</v>
+        <v>37278</v>
       </c>
       <c r="E151" t="n">
         <v>125</v>
       </c>
       <c r="F151" t="n">
-        <v>1330</v>
+        <v>1337</v>
       </c>
       <c r="G151" t="inlineStr"/>
     </row>
@@ -4146,20 +4148,20 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>29.06.2020</t>
+          <t>30.06.2020</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2232</v>
+        <v>2272</v>
       </c>
       <c r="D152" t="n">
-        <v>36584</v>
+        <v>36888</v>
       </c>
       <c r="E152" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F152" t="n">
-        <v>1323</v>
+        <v>1330</v>
       </c>
       <c r="G152" t="inlineStr"/>
     </row>
@@ -4169,20 +4171,20 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>26.06.2020</t>
+          <t>29.06.2020</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2090</v>
+        <v>2232</v>
       </c>
       <c r="D153" t="n">
-        <v>35684</v>
+        <v>36584</v>
       </c>
       <c r="E153" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F153" t="n">
-        <v>1300</v>
+        <v>1323</v>
       </c>
       <c r="G153" t="inlineStr"/>
     </row>
@@ -4192,20 +4194,20 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>25.06.2020</t>
+          <t>26.06.2020</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2037</v>
+        <v>2090</v>
       </c>
       <c r="D154" t="n">
-        <v>35326</v>
+        <v>35684</v>
       </c>
       <c r="E154" t="n">
         <v>121</v>
       </c>
       <c r="F154" t="n">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="G154" t="inlineStr"/>
     </row>
@@ -4215,20 +4217,20 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>24.06.2020</t>
+          <t>25.06.2020</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1975</v>
+        <v>2037</v>
       </c>
       <c r="D155" t="n">
-        <v>34969</v>
+        <v>35326</v>
       </c>
       <c r="E155" t="n">
         <v>121</v>
       </c>
       <c r="F155" t="n">
-        <v>1281</v>
+        <v>1294</v>
       </c>
       <c r="G155" t="inlineStr"/>
     </row>
@@ -4238,20 +4240,20 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>23.06.2020</t>
+          <t>24.06.2020</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1931</v>
+        <v>1975</v>
       </c>
       <c r="D156" t="n">
-        <v>34556</v>
+        <v>34969</v>
       </c>
       <c r="E156" t="n">
         <v>121</v>
       </c>
       <c r="F156" t="n">
-        <v>1269</v>
+        <v>1281</v>
       </c>
       <c r="G156" t="inlineStr"/>
     </row>
@@ -4261,20 +4263,20 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>22.06.2020</t>
+          <t>23.06.2020</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1905</v>
+        <v>1931</v>
       </c>
       <c r="D157" t="n">
-        <v>34239</v>
+        <v>34556</v>
       </c>
       <c r="E157" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F157" t="n">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="G157" t="inlineStr"/>
     </row>
@@ -4284,20 +4286,20 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>19.06.2020</t>
+          <t>22.06.2020</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1770</v>
+        <v>1905</v>
       </c>
       <c r="D158" t="n">
-        <v>33356</v>
+        <v>34239</v>
       </c>
       <c r="E158" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F158" t="n">
-        <v>1233</v>
+        <v>1258</v>
       </c>
       <c r="G158" t="inlineStr"/>
     </row>
@@ -4307,20 +4309,20 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>18.06.2020</t>
+          <t>19.06.2020</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1749</v>
+        <v>1770</v>
       </c>
       <c r="D159" t="n">
-        <v>32997</v>
+        <v>33356</v>
       </c>
       <c r="E159" t="n">
         <v>119</v>
       </c>
       <c r="F159" t="n">
-        <v>1212</v>
+        <v>1233</v>
       </c>
       <c r="G159" t="inlineStr"/>
     </row>
@@ -4330,20 +4332,20 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>17.06.2020</t>
+          <t>18.06.2020</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1724</v>
+        <v>1749</v>
       </c>
       <c r="D160" t="n">
-        <v>32703</v>
+        <v>32997</v>
       </c>
       <c r="E160" t="n">
         <v>119</v>
       </c>
       <c r="F160" t="n">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="G160" t="inlineStr"/>
     </row>
@@ -4353,20 +4355,20 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16.06.2020</t>
+          <t>17.06.2020</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1692</v>
+        <v>1724</v>
       </c>
       <c r="D161" t="n">
-        <v>32396</v>
+        <v>32703</v>
       </c>
       <c r="E161" t="n">
         <v>119</v>
       </c>
       <c r="F161" t="n">
-        <v>1181</v>
+        <v>1200</v>
       </c>
       <c r="G161" t="inlineStr"/>
     </row>
@@ -4376,20 +4378,20 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>15.06.2020</t>
+          <t>16.06.2020</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1680</v>
+        <v>1692</v>
       </c>
       <c r="D162" t="n">
-        <v>32232</v>
+        <v>32396</v>
       </c>
       <c r="E162" t="n">
         <v>119</v>
       </c>
       <c r="F162" t="n">
-        <v>1165</v>
+        <v>1181</v>
       </c>
       <c r="G162" t="inlineStr"/>
     </row>
@@ -4399,20 +4401,20 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>12.06.2020</t>
+          <t>15.06.2020</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1607</v>
+        <v>1680</v>
       </c>
       <c r="D163" t="n">
-        <v>31473</v>
+        <v>32232</v>
       </c>
       <c r="E163" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F163" t="n">
-        <v>1123</v>
+        <v>1165</v>
       </c>
       <c r="G163" t="inlineStr"/>
     </row>
@@ -4422,20 +4424,20 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>11.06.2020</t>
+          <t>12.06.2020</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1585</v>
+        <v>1607</v>
       </c>
       <c r="D164" t="n">
-        <v>31257</v>
+        <v>31473</v>
       </c>
       <c r="E164" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F164" t="n">
-        <v>1104</v>
+        <v>1123</v>
       </c>
       <c r="G164" t="inlineStr"/>
     </row>
@@ -4445,20 +4447,20 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>10.06.2020</t>
+          <t>11.06.2020</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1567</v>
+        <v>1585</v>
       </c>
       <c r="D165" t="n">
-        <v>30942</v>
+        <v>31257</v>
       </c>
       <c r="E165" t="n">
         <v>117</v>
       </c>
       <c r="F165" t="n">
-        <v>1082</v>
+        <v>1104</v>
       </c>
       <c r="G165" t="inlineStr"/>
     </row>
@@ -4468,20 +4470,20 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>09.06.2020</t>
+          <t>10.06.2020</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1540</v>
+        <v>1567</v>
       </c>
       <c r="D166" t="n">
-        <v>30648</v>
+        <v>30942</v>
       </c>
       <c r="E166" t="n">
         <v>117</v>
       </c>
       <c r="F166" t="n">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="G166" t="inlineStr"/>
     </row>
@@ -4491,20 +4493,20 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>08.06.2020</t>
+          <t>09.06.2020</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1524</v>
+        <v>1540</v>
       </c>
       <c r="D167" t="n">
-        <v>30356</v>
+        <v>30648</v>
       </c>
       <c r="E167" t="n">
         <v>117</v>
       </c>
       <c r="F167" t="n">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="G167" t="inlineStr"/>
     </row>
@@ -4514,20 +4516,20 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>05.06.2020</t>
+          <t>08.06.2020</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1479</v>
+        <v>1524</v>
       </c>
       <c r="D168" t="n">
-        <v>29382</v>
+        <v>30356</v>
       </c>
       <c r="E168" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F168" t="n">
-        <v>1008</v>
+        <v>1057</v>
       </c>
       <c r="G168" t="inlineStr"/>
     </row>
@@ -4537,20 +4539,20 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>04.06.2020</t>
+          <t>05.06.2020</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1469</v>
+        <v>1479</v>
       </c>
       <c r="D169" t="n">
-        <v>28877</v>
+        <v>29382</v>
       </c>
       <c r="E169" t="n">
         <v>116</v>
       </c>
       <c r="F169" t="n">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="G169" t="inlineStr"/>
     </row>
@@ -4560,20 +4562,20 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>03.06.2020</t>
+          <t>04.06.2020</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1438</v>
+        <v>1469</v>
       </c>
       <c r="D170" t="n">
-        <v>28588</v>
+        <v>28877</v>
       </c>
       <c r="E170" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F170" t="n">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="G170" t="inlineStr"/>
     </row>
@@ -4583,20 +4585,20 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>02.06.2020</t>
+          <t>03.06.2020</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1430</v>
+        <v>1438</v>
       </c>
       <c r="D171" t="n">
-        <v>28006</v>
+        <v>28588</v>
       </c>
       <c r="E171" t="n">
         <v>114</v>
       </c>
       <c r="F171" t="n">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="G171" t="inlineStr"/>
     </row>
@@ -4606,20 +4608,20 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>02.06.2020</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1422</v>
+        <v>1430</v>
       </c>
       <c r="D172" t="n">
-        <v>27620</v>
+        <v>28006</v>
       </c>
       <c r="E172" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F172" t="n">
-        <v>930</v>
+        <v>952</v>
       </c>
       <c r="G172" t="inlineStr"/>
     </row>
@@ -4629,20 +4631,20 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>31.05.2020</t>
+          <t>01.06.2020</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="D173" t="n">
-        <v>27051</v>
+        <v>27620</v>
       </c>
       <c r="E173" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F173" t="n">
-        <v>904</v>
+        <v>930</v>
       </c>
       <c r="G173" t="inlineStr"/>
     </row>
@@ -4652,20 +4654,20 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>30.05.2020</t>
+          <t>31.05.2020</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1395</v>
+        <v>1408</v>
       </c>
       <c r="D174" t="n">
-        <v>26822</v>
+        <v>27051</v>
       </c>
       <c r="E174" t="n">
         <v>110</v>
       </c>
       <c r="F174" t="n">
-        <v>873</v>
+        <v>904</v>
       </c>
       <c r="G174" t="inlineStr"/>
     </row>
@@ -4675,20 +4677,20 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>29.05.2020</t>
+          <t>30.05.2020</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D175" t="n">
-        <v>26362</v>
+        <v>26822</v>
       </c>
       <c r="E175" t="n">
         <v>110</v>
       </c>
       <c r="F175" t="n">
-        <v>848</v>
+        <v>873</v>
       </c>
       <c r="G175" t="inlineStr"/>
     </row>
@@ -4698,20 +4700,20 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>28.05.2020</t>
+          <t>29.05.2020</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1383</v>
+        <v>1394</v>
       </c>
       <c r="D176" t="n">
-        <v>25737</v>
+        <v>26362</v>
       </c>
       <c r="E176" t="n">
         <v>110</v>
       </c>
       <c r="F176" t="n">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="G176" t="inlineStr"/>
     </row>
@@ -4721,20 +4723,20 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>27.05.2020</t>
+          <t>28.05.2020</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1374</v>
+        <v>1383</v>
       </c>
       <c r="D177" t="n">
-        <v>24841</v>
+        <v>25737</v>
       </c>
       <c r="E177" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F177" t="n">
-        <v>801</v>
+        <v>833</v>
       </c>
       <c r="G177" t="inlineStr"/>
     </row>
@@ -4744,20 +4746,20 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>26.05.2020</t>
+          <t>27.05.2020</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="D178" t="n">
         <v>24841</v>
       </c>
       <c r="E178" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F178" t="n">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="G178" t="inlineStr"/>
     </row>
@@ -4767,20 +4769,20 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>25.05.2020</t>
+          <t>26.05.2020</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1364</v>
+        <v>1371</v>
       </c>
       <c r="D179" t="n">
-        <v>24656</v>
+        <v>24841</v>
       </c>
       <c r="E179" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F179" t="n">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="G179" t="inlineStr"/>
     </row>
@@ -4790,20 +4792,20 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>24.05.2020</t>
+          <t>25.05.2020</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="D180" t="n">
-        <v>24476</v>
+        <v>24656</v>
       </c>
       <c r="E180" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F180" t="n">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="G180" t="inlineStr"/>
     </row>
@@ -4813,20 +4815,20 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>23.05.2020</t>
+          <t>24.05.2020</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1351</v>
+        <v>1359</v>
       </c>
       <c r="D181" t="n">
-        <v>24012</v>
+        <v>24476</v>
       </c>
       <c r="E181" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F181" t="n">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="G181" t="inlineStr"/>
     </row>
@@ -4836,20 +4838,20 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>22.05.2020</t>
+          <t>23.05.2020</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="D182" t="n">
-        <v>23513</v>
+        <v>24012</v>
       </c>
       <c r="E182" t="n">
         <v>100</v>
       </c>
       <c r="F182" t="n">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="G182" t="inlineStr"/>
     </row>
@@ -4859,24 +4861,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>21.05.2020</t>
+          <t>22.05.2020</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1320</v>
+        <v>1339</v>
       </c>
       <c r="D183" t="n">
-        <v>23595</v>
+        <v>23513</v>
       </c>
       <c r="E183" t="n">
-        <v>5030</v>
+        <v>100</v>
       </c>
       <c r="F183" t="n">
-        <v>99</v>
-      </c>
-      <c r="G183" t="n">
-        <v>702</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4884,23 +4884,23 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>20.05.2020</t>
+          <t>21.05.2020</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="D184" t="n">
-        <v>23129</v>
+        <v>23595</v>
       </c>
       <c r="E184" t="n">
-        <v>4885</v>
+        <v>5030</v>
       </c>
       <c r="F184" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G184" t="n">
-        <v>675</v>
+        <v>702</v>
       </c>
     </row>
     <row r="185">
@@ -4909,23 +4909,23 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>19.05.2020</t>
+          <t>20.05.2020</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1292</v>
+        <v>1306</v>
       </c>
       <c r="D185" t="n">
-        <v>22600</v>
+        <v>23129</v>
       </c>
       <c r="E185" t="n">
-        <v>5000</v>
+        <v>4885</v>
       </c>
       <c r="F185" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G185" t="n">
-        <v>658</v>
+        <v>675</v>
       </c>
     </row>
     <row r="186">
@@ -4934,23 +4934,23 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>18.05.2020</t>
+          <t>19.05.2020</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1278</v>
+        <v>1292</v>
       </c>
       <c r="D186" t="n">
-        <v>22272</v>
+        <v>22600</v>
       </c>
       <c r="E186" t="n">
-        <v>4588</v>
+        <v>5000</v>
       </c>
       <c r="F186" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G186" t="n">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="187">
@@ -4959,23 +4959,23 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>17.05.2020</t>
+          <t>18.05.2020</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1266</v>
+        <v>1278</v>
       </c>
       <c r="D187" t="n">
-        <v>21309</v>
+        <v>22272</v>
       </c>
       <c r="E187" t="n">
-        <v>3784</v>
+        <v>4588</v>
       </c>
       <c r="F187" t="n">
         <v>92</v>
       </c>
       <c r="G187" t="n">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="188">
@@ -4984,23 +4984,23 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16.05.2020</t>
+          <t>17.05.2020</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1244</v>
+        <v>1266</v>
       </c>
       <c r="D188" t="n">
-        <v>20823</v>
+        <v>21309</v>
       </c>
       <c r="E188" t="n">
-        <v>3758</v>
+        <v>3784</v>
       </c>
       <c r="F188" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G188" t="n">
-        <v>559</v>
+        <v>638</v>
       </c>
     </row>
     <row r="189">
@@ -5009,23 +5009,23 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>15.05.2020</t>
+          <t>16.05.2020</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1217</v>
+        <v>1244</v>
       </c>
       <c r="D189" t="n">
-        <v>20335</v>
+        <v>20823</v>
       </c>
       <c r="E189" t="n">
-        <v>3783</v>
+        <v>3758</v>
       </c>
       <c r="F189" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G189" t="n">
-        <v>543</v>
+        <v>559</v>
       </c>
     </row>
     <row r="190">
@@ -5034,23 +5034,23 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>14.05.2020</t>
+          <t>15.05.2020</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1201</v>
+        <v>1217</v>
       </c>
       <c r="D190" t="n">
-        <v>19872</v>
+        <v>20335</v>
       </c>
       <c r="E190" t="n">
-        <v>3775</v>
+        <v>3783</v>
       </c>
       <c r="F190" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G190" t="n">
-        <v>511</v>
+        <v>543</v>
       </c>
     </row>
     <row r="191">
@@ -5059,20 +5059,20 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>13.05.2020</t>
+          <t>14.05.2020</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1168</v>
+        <v>1201</v>
       </c>
       <c r="D191" t="n">
-        <v>19108</v>
+        <v>19872</v>
       </c>
       <c r="E191" t="n">
-        <v>3783</v>
+        <v>3775</v>
       </c>
       <c r="F191" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G191" t="n">
         <v>511</v>
@@ -5084,23 +5084,23 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>12.05.2020</t>
+          <t>13.05.2020</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1145</v>
+        <v>1168</v>
       </c>
       <c r="D192" t="n">
-        <v>18674</v>
+        <v>19108</v>
       </c>
       <c r="E192" t="n">
-        <v>4017</v>
+        <v>3783</v>
       </c>
       <c r="F192" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G192" t="n">
-        <v>461</v>
+        <v>511</v>
       </c>
     </row>
     <row r="193">
@@ -5109,20 +5109,20 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>11.05.2020</t>
+          <t>12.05.2020</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="D193" t="n">
-        <v>18442</v>
+        <v>18674</v>
       </c>
       <c r="E193" t="n">
-        <v>4021</v>
+        <v>4017</v>
       </c>
       <c r="F193" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G193" t="n">
         <v>461</v>
@@ -5134,23 +5134,23 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>10.05.2020</t>
+          <t>11.05.2020</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1105</v>
+        <v>1129</v>
       </c>
       <c r="D194" t="n">
-        <v>17720</v>
+        <v>18442</v>
       </c>
       <c r="E194" t="n">
-        <v>4030</v>
+        <v>4021</v>
       </c>
       <c r="F194" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G194" t="n">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="195">
@@ -5159,23 +5159,23 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>09.05.2020</t>
+          <t>10.05.2020</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1086</v>
+        <v>1105</v>
       </c>
       <c r="D195" t="n">
-        <v>17152</v>
+        <v>17720</v>
       </c>
       <c r="E195" t="n">
-        <v>4017</v>
+        <v>4030</v>
       </c>
       <c r="F195" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G195" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="196">
@@ -5184,23 +5184,23 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>08.05.2020</t>
+          <t>09.05.2020</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="D196" t="n">
-        <v>16484</v>
+        <v>17152</v>
       </c>
       <c r="E196" t="n">
-        <v>3933</v>
+        <v>4017</v>
       </c>
       <c r="F196" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G196" t="n">
-        <v>409</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197">
@@ -5209,20 +5209,20 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>07.05.2020</t>
+          <t>08.05.2020</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1043</v>
+        <v>1068</v>
       </c>
       <c r="D197" t="n">
-        <v>16464</v>
+        <v>16484</v>
       </c>
       <c r="E197" t="n">
-        <v>3816</v>
+        <v>3933</v>
       </c>
       <c r="F197" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G197" t="n">
         <v>409</v>
@@ -5234,23 +5234,23 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>06.05.2020</t>
+          <t>07.05.2020</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1015</v>
+        <v>1043</v>
       </c>
       <c r="D198" t="n">
-        <v>15479</v>
+        <v>16464</v>
       </c>
       <c r="E198" t="n">
-        <v>3843</v>
+        <v>3816</v>
       </c>
       <c r="F198" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G198" t="n">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="199">
@@ -5259,23 +5259,23 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>05.05.2020</t>
+          <t>06.05.2020</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>985</v>
+        <v>1015</v>
       </c>
       <c r="D199" t="n">
-        <v>14836</v>
+        <v>15479</v>
       </c>
       <c r="E199" t="n">
-        <v>3881</v>
+        <v>3843</v>
       </c>
       <c r="F199" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G199" t="n">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="200">
@@ -5284,20 +5284,20 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>04.05.2020</t>
+          <t>05.05.2020</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>969</v>
+        <v>985</v>
       </c>
       <c r="D200" t="n">
-        <v>14490</v>
+        <v>14836</v>
       </c>
       <c r="E200" t="n">
-        <v>3926</v>
+        <v>3881</v>
       </c>
       <c r="F200" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G200" t="n">
         <v>381</v>
@@ -5309,20 +5309,20 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>03.05.2020</t>
+          <t>04.05.2020</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="D201" t="n">
-        <v>14391</v>
+        <v>14490</v>
       </c>
       <c r="E201" t="n">
-        <v>3922</v>
+        <v>3926</v>
       </c>
       <c r="F201" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G201" t="n">
         <v>381</v>
@@ -5334,20 +5334,20 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>02.05.2020</t>
+          <t>03.05.2020</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="D202" t="n">
-        <v>13778</v>
+        <v>14391</v>
       </c>
       <c r="E202" t="n">
-        <v>3833</v>
+        <v>3922</v>
       </c>
       <c r="F202" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G202" t="n">
         <v>381</v>
@@ -5359,20 +5359,20 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>02.05.2020</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>842</v>
+        <v>891</v>
       </c>
       <c r="D203" t="n">
-        <v>13664</v>
+        <v>13778</v>
       </c>
       <c r="E203" t="n">
-        <v>3604</v>
+        <v>3833</v>
       </c>
       <c r="F203" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G203" t="n">
         <v>381</v>
@@ -5384,20 +5384,20 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>30.04.2020</t>
+          <t>01.05.2020</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="D204" t="n">
-        <v>13026</v>
+        <v>13664</v>
       </c>
       <c r="E204" t="n">
-        <v>3348</v>
+        <v>3604</v>
       </c>
       <c r="F204" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G204" t="n">
         <v>381</v>
@@ -5409,20 +5409,20 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>29.04.2020</t>
+          <t>30.04.2020</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>767</v>
+        <v>820</v>
       </c>
       <c r="D205" t="n">
-        <v>12399</v>
+        <v>13026</v>
       </c>
       <c r="E205" t="n">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="F205" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G205" t="n">
         <v>381</v>
@@ -5434,23 +5434,23 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>28.04.2020</t>
+          <t>29.04.2020</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>708</v>
+        <v>767</v>
       </c>
       <c r="D206" t="n">
-        <v>11420</v>
+        <v>12399</v>
       </c>
       <c r="E206" t="n">
-        <v>3268</v>
+        <v>3351</v>
       </c>
       <c r="F206" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G206" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="207">
@@ -5459,20 +5459,20 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>27.04.2020</t>
+          <t>28.04.2020</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D207" t="n">
-        <v>11384</v>
+        <v>11420</v>
       </c>
       <c r="E207" t="n">
-        <v>3197</v>
+        <v>3268</v>
       </c>
       <c r="F207" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G207" t="n">
         <v>369</v>
@@ -5484,23 +5484,23 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>26.04.2020</t>
+          <t>27.04.2020</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="D208" t="n">
-        <v>10965</v>
+        <v>11384</v>
       </c>
       <c r="E208" t="n">
-        <v>3505</v>
+        <v>3197</v>
       </c>
       <c r="F208" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G208" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="209">
@@ -5509,23 +5509,23 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>25.04.2020</t>
+          <t>26.04.2020</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="D209" t="n">
-        <v>10403</v>
+        <v>10965</v>
       </c>
       <c r="E209" t="n">
-        <v>3518</v>
+        <v>3505</v>
       </c>
       <c r="F209" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G209" t="n">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="210">
@@ -5534,23 +5534,23 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>24.04.2020</t>
+          <t>25.04.2020</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="D210" t="n">
-        <v>9638</v>
+        <v>10403</v>
       </c>
       <c r="E210" t="n">
-        <v>3559</v>
+        <v>3518</v>
       </c>
       <c r="F210" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G210" t="n">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="211">
@@ -5559,20 +5559,20 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>23.04.2020</t>
+          <t>24.04.2020</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D211" t="n">
-        <v>9118</v>
+        <v>9638</v>
       </c>
       <c r="E211" t="n">
-        <v>3631</v>
+        <v>3559</v>
       </c>
       <c r="F211" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G211" t="n">
         <v>306</v>
@@ -5584,20 +5584,20 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>22.04.2020</t>
+          <t>23.04.2020</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="D212" t="n">
-        <v>8606</v>
+        <v>9118</v>
       </c>
       <c r="E212" t="n">
-        <v>3809</v>
+        <v>3631</v>
       </c>
       <c r="F212" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G212" t="n">
         <v>306</v>
@@ -5609,23 +5609,23 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>21.04.2020</t>
+          <t>22.04.2020</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="D213" t="n">
-        <v>8323</v>
+        <v>8606</v>
       </c>
       <c r="E213" t="n">
-        <v>3855</v>
+        <v>3809</v>
       </c>
       <c r="F213" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G213" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="214">
@@ -5634,23 +5634,23 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>20.04.2020</t>
+          <t>21.04.2020</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="D214" t="n">
-        <v>8114</v>
+        <v>8323</v>
       </c>
       <c r="E214" t="n">
-        <v>4209</v>
+        <v>3855</v>
       </c>
       <c r="F214" t="n">
         <v>17</v>
       </c>
       <c r="G214" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="215">
@@ -5659,23 +5659,23 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>19.04.2020</t>
+          <t>20.04.2020</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D215" t="n">
-        <v>7943</v>
+        <v>8114</v>
       </c>
       <c r="E215" t="n">
-        <v>4204</v>
+        <v>4209</v>
       </c>
       <c r="F215" t="n">
         <v>17</v>
       </c>
       <c r="G215" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="216">
@@ -5684,20 +5684,20 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>18.04.2020</t>
+          <t>19.04.2020</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D216" t="n">
-        <v>7581</v>
+        <v>7943</v>
       </c>
       <c r="E216" t="n">
-        <v>4189</v>
+        <v>4204</v>
       </c>
       <c r="F216" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G216" t="n">
         <v>251</v>
@@ -5709,23 +5709,23 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>17.04.2020</t>
+          <t>18.04.2020</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="D217" t="n">
-        <v>6994</v>
+        <v>7581</v>
       </c>
       <c r="E217" t="n">
-        <v>4714</v>
+        <v>4189</v>
       </c>
       <c r="F217" t="n">
         <v>16</v>
       </c>
       <c r="G217" t="n">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="218">
@@ -5734,23 +5734,23 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16.04.2020</t>
+          <t>17.04.2020</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="D218" t="n">
-        <v>6565</v>
+        <v>6994</v>
       </c>
       <c r="E218" t="n">
-        <v>5128</v>
+        <v>4714</v>
       </c>
       <c r="F218" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G218" t="n">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219">
@@ -5759,23 +5759,23 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>15.04.2020</t>
+          <t>16.04.2020</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="D219" t="n">
-        <v>5921</v>
+        <v>6565</v>
       </c>
       <c r="E219" t="n">
-        <v>5326</v>
+        <v>5128</v>
       </c>
       <c r="F219" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G219" t="n">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220">
@@ -5784,23 +5784,23 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>14.04.2020</t>
+          <t>15.04.2020</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D220" t="n">
-        <v>5559</v>
+        <v>5921</v>
       </c>
       <c r="E220" t="n">
-        <v>5457</v>
+        <v>5326</v>
       </c>
       <c r="F220" t="n">
         <v>14</v>
       </c>
       <c r="G220" t="n">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="221">
@@ -5809,22 +5809,24 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>13.04.2020</t>
+          <t>14.04.2020</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="D221" t="n">
-        <v>5223</v>
+        <v>5559</v>
       </c>
       <c r="E221" t="n">
-        <v>6164</v>
+        <v>5457</v>
       </c>
       <c r="F221" t="n">
         <v>14</v>
       </c>
-      <c r="G221" t="inlineStr"/>
+      <c r="G221" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5832,17 +5834,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>12.04.2020</t>
+          <t>13.04.2020</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D222" t="n">
-        <v>4960</v>
+        <v>5223</v>
       </c>
       <c r="E222" t="n">
-        <v>6096</v>
+        <v>6164</v>
       </c>
       <c r="F222" t="n">
         <v>14</v>
@@ -5855,17 +5857,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>11.04.2020</t>
+          <t>12.04.2020</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="D223" t="n">
-        <v>4607</v>
+        <v>4960</v>
       </c>
       <c r="E223" t="n">
-        <v>6244</v>
+        <v>6096</v>
       </c>
       <c r="F223" t="n">
         <v>14</v>
@@ -5878,17 +5880,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>10.04.2020</t>
+          <t>11.04.2020</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D224" t="n">
-        <v>4159</v>
+        <v>4607</v>
       </c>
       <c r="E224" t="n">
-        <v>6587</v>
+        <v>6244</v>
       </c>
       <c r="F224" t="n">
         <v>14</v>
@@ -5901,20 +5903,20 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>09.04.2020</t>
+          <t>10.04.2020</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D225" t="n">
-        <v>3734</v>
+        <v>4159</v>
       </c>
       <c r="E225" t="n">
-        <v>6623</v>
+        <v>6587</v>
       </c>
       <c r="F225" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G225" t="inlineStr"/>
     </row>
@@ -5924,20 +5926,20 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>08.04.2020</t>
+          <t>09.04.2020</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D226" t="n">
-        <v>3318</v>
+        <v>3734</v>
       </c>
       <c r="E226" t="n">
-        <v>6788</v>
+        <v>6623</v>
       </c>
       <c r="F226" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G226" t="inlineStr"/>
     </row>
@@ -5947,20 +5949,20 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>07.04.2020</t>
+          <t>08.04.2020</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D227" t="n">
-        <v>3139</v>
+        <v>3318</v>
       </c>
       <c r="E227" t="n">
-        <v>6940</v>
+        <v>6788</v>
       </c>
       <c r="F227" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G227" t="inlineStr"/>
     </row>
@@ -5970,20 +5972,20 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>07.04.2020</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="D228" t="n">
-        <v>2923</v>
+        <v>3139</v>
       </c>
       <c r="E228" t="n">
-        <v>7443</v>
+        <v>6940</v>
       </c>
       <c r="F228" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G228" t="inlineStr"/>
     </row>
@@ -5993,20 +5995,20 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>05.04.2020</t>
+          <t>06.04.2020</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D229" t="n">
-        <v>2831</v>
+        <v>2923</v>
       </c>
       <c r="E229" t="n">
-        <v>8092</v>
+        <v>7443</v>
       </c>
       <c r="F229" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G229" t="inlineStr"/>
     </row>
@@ -6016,17 +6018,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>04.04.2020</t>
+          <t>05.04.2020</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D230" t="n">
-        <v>2658</v>
+        <v>2831</v>
       </c>
       <c r="E230" t="n">
-        <v>8346</v>
+        <v>8092</v>
       </c>
       <c r="F230" t="n">
         <v>7</v>
@@ -6039,20 +6041,20 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>03.04.2020</t>
+          <t>04.04.2020</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D231" t="n">
-        <v>2341</v>
+        <v>2658</v>
       </c>
       <c r="E231" t="n">
-        <v>8984</v>
+        <v>8346</v>
       </c>
       <c r="F231" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G231" t="inlineStr"/>
     </row>
@@ -6062,22 +6064,45 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
+          <t>03.04.2020</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>274</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2341</v>
+      </c>
+      <c r="E232" t="n">
+        <v>8984</v>
+      </c>
+      <c r="F232" t="n">
+        <v>6</v>
+      </c>
+      <c r="G232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
           <t>02.04.2020</t>
         </is>
       </c>
-      <c r="C232" t="n">
+      <c r="C233" t="n">
         <v>267</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D233" t="n">
         <v>1999</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E233" t="n">
         <v>10504</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F233" t="n">
         <v>5</v>
       </c>
-      <c r="G232" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>Broj aktivnih slučajeva</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Broj osoba pod nadzorom</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -489,6 +494,9 @@
       </c>
       <c r="G2" t="n">
         <v>11825</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -515,6 +523,9 @@
       <c r="G3" t="n">
         <v>11770</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,6 +551,9 @@
       <c r="G4" t="n">
         <v>11880</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,6 +579,9 @@
       <c r="G5" t="n">
         <v>11891</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,6 +607,9 @@
       <c r="G6" t="n">
         <v>11982</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -615,6 +635,9 @@
       <c r="G7" t="n">
         <v>12025</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -640,6 +663,9 @@
       <c r="G8" t="n">
         <v>12147</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -665,6 +691,9 @@
       <c r="G9" t="n">
         <v>12237</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -690,6 +719,9 @@
       <c r="G10" t="n">
         <v>12254</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -715,6 +747,9 @@
       <c r="G11" t="n">
         <v>12467</v>
       </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -740,6 +775,9 @@
       <c r="G12" t="n">
         <v>12564</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -765,6 +803,9 @@
       <c r="G13" t="n">
         <v>12707</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -790,6 +831,9 @@
       <c r="G14" t="n">
         <v>12751</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -815,6 +859,9 @@
       <c r="G15" t="n">
         <v>12725</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -840,6 +887,9 @@
       <c r="G16" t="n">
         <v>12784</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -865,6 +915,9 @@
       <c r="G17" t="n">
         <v>12705</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -890,6 +943,9 @@
       <c r="G18" t="n">
         <v>12632</v>
       </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -915,6 +971,9 @@
       <c r="G19" t="n">
         <v>12758</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -940,6 +999,9 @@
       <c r="G20" t="n">
         <v>12779</v>
       </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -965,6 +1027,9 @@
       <c r="G21" t="n">
         <v>12782</v>
       </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -990,6 +1055,9 @@
       <c r="G22" t="n">
         <v>12951</v>
       </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1015,6 +1083,9 @@
       <c r="G23" t="n">
         <v>13169</v>
       </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1040,6 +1111,9 @@
       <c r="G24" t="n">
         <v>13288</v>
       </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1065,6 +1139,9 @@
       <c r="G25" t="n">
         <v>13363</v>
       </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1090,6 +1167,9 @@
       <c r="G26" t="n">
         <v>13519</v>
       </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1115,6 +1195,9 @@
       <c r="G27" t="n">
         <v>13567</v>
       </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1140,6 +1223,9 @@
       <c r="G28" t="n">
         <v>13601</v>
       </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1165,6 +1251,9 @@
       <c r="G29" t="n">
         <v>13649</v>
       </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1190,6 +1279,9 @@
       <c r="G30" t="n">
         <v>13984</v>
       </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1215,6 +1307,9 @@
       <c r="G31" t="n">
         <v>14202</v>
       </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1240,6 +1335,9 @@
       <c r="G32" t="n">
         <v>14234</v>
       </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1265,6 +1363,9 @@
       <c r="G33" t="n">
         <v>14350</v>
       </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1290,6 +1391,9 @@
       <c r="G34" t="n">
         <v>14452</v>
       </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1315,6 +1419,9 @@
       <c r="G35" t="n">
         <v>14267</v>
       </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1340,6 +1447,9 @@
       <c r="G36" t="n">
         <v>14160</v>
       </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1365,6 +1475,9 @@
       <c r="G37" t="n">
         <v>13810</v>
       </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1390,6 +1503,9 @@
       <c r="G38" t="n">
         <v>13464</v>
       </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1415,6 +1531,9 @@
       <c r="G39" t="n">
         <v>13307</v>
       </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1440,6 +1559,9 @@
       <c r="G40" t="n">
         <v>13667</v>
       </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1465,6 +1587,9 @@
       <c r="G41" t="n">
         <v>13748</v>
       </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1490,6 +1615,9 @@
       <c r="G42" t="n">
         <v>13808</v>
       </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1515,6 +1643,9 @@
       <c r="G43" t="n">
         <v>14291</v>
       </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1540,6 +1671,9 @@
       <c r="G44" t="n">
         <v>14406</v>
       </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1565,6 +1699,9 @@
       <c r="G45" t="n">
         <v>14527</v>
       </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1590,6 +1727,9 @@
       <c r="G46" t="n">
         <v>14429</v>
       </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1615,6 +1755,9 @@
       <c r="G47" t="n">
         <v>14234</v>
       </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1640,6 +1783,9 @@
       <c r="G48" t="n">
         <v>14195</v>
       </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1665,6 +1811,9 @@
       <c r="G49" t="n">
         <v>14075</v>
       </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1690,6 +1839,9 @@
       <c r="G50" t="n">
         <v>13828</v>
       </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1715,6 +1867,9 @@
       <c r="G51" t="n">
         <v>13562</v>
       </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1740,6 +1895,9 @@
       <c r="G52" t="n">
         <v>13358</v>
       </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1765,6 +1923,9 @@
       <c r="G53" t="n">
         <v>13046</v>
       </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1790,6 +1951,9 @@
       <c r="G54" t="n">
         <v>12750</v>
       </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1815,6 +1979,9 @@
       <c r="G55" t="n">
         <v>12328</v>
       </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1840,6 +2007,9 @@
       <c r="G56" t="n">
         <v>11840</v>
       </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1865,6 +2035,9 @@
       <c r="G57" t="n">
         <v>11355</v>
       </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1890,6 +2063,9 @@
       <c r="G58" t="n">
         <v>10848</v>
       </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1915,6 +2091,9 @@
       <c r="G59" t="n">
         <v>10431</v>
       </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1940,6 +2119,9 @@
       <c r="G60" t="n">
         <v>9862</v>
       </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1965,6 +2147,9 @@
       <c r="G61" t="n">
         <v>9587</v>
       </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1990,6 +2175,9 @@
       <c r="G62" t="n">
         <v>9077</v>
       </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2015,6 +2203,9 @@
       <c r="G63" t="n">
         <v>8317</v>
       </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2040,6 +2231,9 @@
       <c r="G64" t="n">
         <v>7762</v>
       </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2065,6 +2259,9 @@
       <c r="G65" t="n">
         <v>7191</v>
       </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2090,6 +2287,9 @@
       <c r="G66" t="n">
         <v>6663</v>
       </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2115,6 +2315,9 @@
       <c r="G67" t="n">
         <v>6128</v>
       </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2140,6 +2343,9 @@
       <c r="G68" t="n">
         <v>5867</v>
       </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2165,6 +2371,9 @@
       <c r="G69" t="n">
         <v>5559</v>
       </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2190,6 +2399,9 @@
       <c r="G70" t="n">
         <v>5076</v>
       </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2215,6 +2427,9 @@
       <c r="G71" t="n">
         <v>4733</v>
       </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2240,6 +2455,9 @@
       <c r="G72" t="n">
         <v>4432</v>
       </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2265,6 +2483,9 @@
       <c r="G73" t="n">
         <v>4204</v>
       </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2290,6 +2511,9 @@
       <c r="G74" t="n">
         <v>3978</v>
       </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2315,6 +2539,9 @@
       <c r="G75" t="n">
         <v>3488</v>
       </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2340,6 +2567,9 @@
       <c r="G76" t="n">
         <v>3325</v>
       </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2365,6 +2595,9 @@
       <c r="G77" t="n">
         <v>3208</v>
       </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2390,6 +2623,9 @@
       <c r="G78" t="n">
         <v>3142</v>
       </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2415,6 +2651,9 @@
       <c r="G79" t="n">
         <v>3123</v>
       </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2440,6 +2679,9 @@
       <c r="G80" t="n">
         <v>2959</v>
       </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2465,6 +2707,9 @@
       <c r="G81" t="n">
         <v>2953</v>
       </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2490,6 +2735,9 @@
       <c r="G82" t="n">
         <v>2860</v>
       </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2515,6 +2763,9 @@
       <c r="G83" t="n">
         <v>2792</v>
       </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2540,6 +2791,9 @@
       <c r="G84" t="n">
         <v>2785</v>
       </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2565,6 +2819,9 @@
       <c r="G85" t="n">
         <v>2731</v>
       </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2590,6 +2847,9 @@
       <c r="G86" t="n">
         <v>2722</v>
       </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2615,6 +2875,9 @@
       <c r="G87" t="n">
         <v>2714</v>
       </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2640,6 +2903,9 @@
       <c r="G88" t="n">
         <v>2694</v>
       </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2665,6 +2931,9 @@
       <c r="G89" t="n">
         <v>2695</v>
       </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2690,6 +2959,9 @@
       <c r="G90" t="n">
         <v>2722</v>
       </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2715,6 +2987,9 @@
       <c r="G91" t="n">
         <v>2734</v>
       </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2740,6 +3015,9 @@
       <c r="G92" t="n">
         <v>2769</v>
       </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2765,6 +3043,9 @@
       <c r="G93" t="n">
         <v>2791</v>
       </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2790,6 +3071,9 @@
       <c r="G94" t="n">
         <v>2798</v>
       </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2815,6 +3099,9 @@
       <c r="G95" t="n">
         <v>2833</v>
       </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2840,6 +3127,9 @@
       <c r="G96" t="n">
         <v>2796</v>
       </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2865,6 +3155,9 @@
       <c r="G97" t="n">
         <v>2758</v>
       </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2890,6 +3183,9 @@
       <c r="G98" t="n">
         <v>2724</v>
       </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2915,6 +3211,9 @@
       <c r="G99" t="n">
         <v>2716</v>
       </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2940,6 +3239,9 @@
       <c r="G100" t="n">
         <v>2733</v>
       </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2965,6 +3267,9 @@
       <c r="G101" t="n">
         <v>2728</v>
       </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2990,6 +3295,9 @@
       <c r="G102" t="n">
         <v>2719</v>
       </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3015,6 +3323,9 @@
       <c r="G103" t="n">
         <v>2665</v>
       </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3040,6 +3351,9 @@
       <c r="G104" t="n">
         <v>2659</v>
       </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3065,6 +3379,9 @@
       <c r="G105" t="n">
         <v>2723</v>
       </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3090,6 +3407,9 @@
       <c r="G106" t="n">
         <v>2774</v>
       </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3115,6 +3435,9 @@
       <c r="G107" t="n">
         <v>2797</v>
       </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3140,6 +3463,9 @@
       <c r="G108" t="n">
         <v>2793</v>
       </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3165,6 +3491,9 @@
       <c r="G109" t="n">
         <v>2810</v>
       </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3190,6 +3519,9 @@
       <c r="G110" t="n">
         <v>2791</v>
       </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3215,6 +3547,9 @@
       <c r="G111" t="n">
         <v>2789</v>
       </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3240,6 +3575,9 @@
       <c r="G112" t="n">
         <v>2758</v>
       </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3265,6 +3603,9 @@
       <c r="G113" t="n">
         <v>2710</v>
       </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3290,6 +3631,9 @@
       <c r="G114" t="n">
         <v>2668</v>
       </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3312,7 +3656,12 @@
       <c r="F115" t="n">
         <v>4144</v>
       </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3335,7 +3684,12 @@
       <c r="F116" t="n">
         <v>4090</v>
       </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3358,7 +3712,12 @@
       <c r="F117" t="n">
         <v>4034</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3381,7 +3740,12 @@
       <c r="F118" t="n">
         <v>3948</v>
       </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,7 +3768,12 @@
       <c r="F119" t="n">
         <v>3867</v>
       </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3427,7 +3796,12 @@
       <c r="F120" t="n">
         <v>3730</v>
       </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3450,7 +3824,12 @@
       <c r="F121" t="n">
         <v>3661</v>
       </c>
-      <c r="G121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3473,7 +3852,12 @@
       <c r="F122" t="n">
         <v>3548</v>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3496,7 +3880,12 @@
       <c r="F123" t="n">
         <v>3496</v>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3519,7 +3908,12 @@
       <c r="F124" t="n">
         <v>3350</v>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3542,7 +3936,12 @@
       <c r="F125" t="n">
         <v>3243</v>
       </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3565,7 +3964,12 @@
       <c r="F126" t="n">
         <v>3194</v>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3588,7 +3992,12 @@
       <c r="F127" t="n">
         <v>3009</v>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3611,7 +4020,12 @@
       <c r="F128" t="n">
         <v>2920</v>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3634,7 +4048,12 @@
       <c r="F129" t="n">
         <v>2830</v>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3657,7 +4076,12 @@
       <c r="F130" t="n">
         <v>2760</v>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3680,7 +4104,12 @@
       <c r="F131" t="n">
         <v>2711</v>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3703,7 +4132,12 @@
       <c r="F132" t="n">
         <v>2411</v>
       </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3726,7 +4160,12 @@
       <c r="F133" t="n">
         <v>2290</v>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3749,7 +4188,12 @@
       <c r="F134" t="n">
         <v>2224</v>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3772,7 +4216,12 @@
       <c r="F135" t="n">
         <v>2180</v>
       </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3795,7 +4244,12 @@
       <c r="F136" t="n">
         <v>2157</v>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3818,7 +4272,12 @@
       <c r="F137" t="n">
         <v>2014</v>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3841,7 +4300,12 @@
       <c r="F138" t="n">
         <v>1965</v>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3864,7 +4328,12 @@
       <c r="F139" t="n">
         <v>1916</v>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3887,7 +4356,12 @@
       <c r="F140" t="n">
         <v>1868</v>
       </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3910,7 +4384,12 @@
       <c r="F141" t="n">
         <v>1778</v>
       </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3933,7 +4412,12 @@
       <c r="F142" t="n">
         <v>1710</v>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3956,7 +4440,12 @@
       <c r="F143" t="n">
         <v>1663</v>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3979,7 +4468,12 @@
       <c r="F144" t="n">
         <v>1591</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4002,7 +4496,12 @@
       <c r="F145" t="n">
         <v>1468</v>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4025,7 +4524,12 @@
       <c r="F146" t="n">
         <v>1425</v>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4048,7 +4552,12 @@
       <c r="F147" t="n">
         <v>1402</v>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4071,7 +4580,12 @@
       <c r="F148" t="n">
         <v>1380</v>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4094,7 +4608,12 @@
       <c r="F149" t="n">
         <v>1350</v>
       </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4117,7 +4636,12 @@
       <c r="F150" t="n">
         <v>1343</v>
       </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4140,7 +4664,12 @@
       <c r="F151" t="n">
         <v>1337</v>
       </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4163,7 +4692,12 @@
       <c r="F152" t="n">
         <v>1330</v>
       </c>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4186,7 +4720,12 @@
       <c r="F153" t="n">
         <v>1323</v>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4209,7 +4748,12 @@
       <c r="F154" t="n">
         <v>1300</v>
       </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4232,7 +4776,12 @@
       <c r="F155" t="n">
         <v>1294</v>
       </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4255,7 +4804,12 @@
       <c r="F156" t="n">
         <v>1281</v>
       </c>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4278,7 +4832,12 @@
       <c r="F157" t="n">
         <v>1269</v>
       </c>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4301,7 +4860,12 @@
       <c r="F158" t="n">
         <v>1258</v>
       </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4324,7 +4888,12 @@
       <c r="F159" t="n">
         <v>1233</v>
       </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4347,7 +4916,12 @@
       <c r="F160" t="n">
         <v>1212</v>
       </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4370,7 +4944,12 @@
       <c r="F161" t="n">
         <v>1200</v>
       </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4393,7 +4972,12 @@
       <c r="F162" t="n">
         <v>1181</v>
       </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4416,7 +5000,12 @@
       <c r="F163" t="n">
         <v>1165</v>
       </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4439,7 +5028,12 @@
       <c r="F164" t="n">
         <v>1123</v>
       </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4462,7 +5056,12 @@
       <c r="F165" t="n">
         <v>1104</v>
       </c>
-      <c r="G165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4485,7 +5084,12 @@
       <c r="F166" t="n">
         <v>1082</v>
       </c>
-      <c r="G166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4508,7 +5112,12 @@
       <c r="F167" t="n">
         <v>1069</v>
       </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4531,7 +5140,12 @@
       <c r="F168" t="n">
         <v>1057</v>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4554,7 +5168,12 @@
       <c r="F169" t="n">
         <v>1008</v>
       </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4577,7 +5196,12 @@
       <c r="F170" t="n">
         <v>991</v>
       </c>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4600,7 +5224,12 @@
       <c r="F171" t="n">
         <v>979</v>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4623,7 +5252,12 @@
       <c r="F172" t="n">
         <v>952</v>
       </c>
-      <c r="G172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4646,7 +5280,12 @@
       <c r="F173" t="n">
         <v>930</v>
       </c>
-      <c r="G173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4669,7 +5308,12 @@
       <c r="F174" t="n">
         <v>904</v>
       </c>
-      <c r="G174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4692,7 +5336,12 @@
       <c r="F175" t="n">
         <v>873</v>
       </c>
-      <c r="G175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4715,7 +5364,12 @@
       <c r="F176" t="n">
         <v>848</v>
       </c>
-      <c r="G176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4738,7 +5392,12 @@
       <c r="F177" t="n">
         <v>833</v>
       </c>
-      <c r="G177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4761,7 +5420,12 @@
       <c r="F178" t="n">
         <v>801</v>
       </c>
-      <c r="G178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4784,7 +5448,12 @@
       <c r="F179" t="n">
         <v>791</v>
       </c>
-      <c r="G179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4807,7 +5476,12 @@
       <c r="F180" t="n">
         <v>768</v>
       </c>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4830,7 +5504,12 @@
       <c r="F181" t="n">
         <v>754</v>
       </c>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4853,7 +5532,12 @@
       <c r="F182" t="n">
         <v>737</v>
       </c>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4876,7 +5560,12 @@
       <c r="F183" t="n">
         <v>715</v>
       </c>
-      <c r="G183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4894,13 +5583,16 @@
         <v>23595</v>
       </c>
       <c r="E184" t="n">
+        <v>99</v>
+      </c>
+      <c r="F184" t="n">
+        <v>702</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
         <v>5030</v>
-      </c>
-      <c r="F184" t="n">
-        <v>99</v>
-      </c>
-      <c r="G184" t="n">
-        <v>702</v>
       </c>
     </row>
     <row r="185">
@@ -4919,13 +5611,16 @@
         <v>23129</v>
       </c>
       <c r="E185" t="n">
+        <v>95</v>
+      </c>
+      <c r="F185" t="n">
+        <v>675</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
         <v>4885</v>
-      </c>
-      <c r="F185" t="n">
-        <v>95</v>
-      </c>
-      <c r="G185" t="n">
-        <v>675</v>
       </c>
     </row>
     <row r="186">
@@ -4944,13 +5639,16 @@
         <v>22600</v>
       </c>
       <c r="E186" t="n">
+        <v>93</v>
+      </c>
+      <c r="F186" t="n">
+        <v>658</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
         <v>5000</v>
-      </c>
-      <c r="F186" t="n">
-        <v>93</v>
-      </c>
-      <c r="G186" t="n">
-        <v>658</v>
       </c>
     </row>
     <row r="187">
@@ -4969,13 +5667,16 @@
         <v>22272</v>
       </c>
       <c r="E187" t="n">
+        <v>92</v>
+      </c>
+      <c r="F187" t="n">
+        <v>643</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
         <v>4588</v>
-      </c>
-      <c r="F187" t="n">
-        <v>92</v>
-      </c>
-      <c r="G187" t="n">
-        <v>643</v>
       </c>
     </row>
     <row r="188">
@@ -4994,13 +5695,16 @@
         <v>21309</v>
       </c>
       <c r="E188" t="n">
+        <v>92</v>
+      </c>
+      <c r="F188" t="n">
+        <v>638</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
         <v>3784</v>
-      </c>
-      <c r="F188" t="n">
-        <v>92</v>
-      </c>
-      <c r="G188" t="n">
-        <v>638</v>
       </c>
     </row>
     <row r="189">
@@ -5019,13 +5723,16 @@
         <v>20823</v>
       </c>
       <c r="E189" t="n">
+        <v>88</v>
+      </c>
+      <c r="F189" t="n">
+        <v>559</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
         <v>3758</v>
-      </c>
-      <c r="F189" t="n">
-        <v>88</v>
-      </c>
-      <c r="G189" t="n">
-        <v>559</v>
       </c>
     </row>
     <row r="190">
@@ -5044,13 +5751,16 @@
         <v>20335</v>
       </c>
       <c r="E190" t="n">
+        <v>87</v>
+      </c>
+      <c r="F190" t="n">
+        <v>543</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
         <v>3783</v>
-      </c>
-      <c r="F190" t="n">
-        <v>87</v>
-      </c>
-      <c r="G190" t="n">
-        <v>543</v>
       </c>
     </row>
     <row r="191">
@@ -5069,13 +5779,16 @@
         <v>19872</v>
       </c>
       <c r="E191" t="n">
+        <v>81</v>
+      </c>
+      <c r="F191" t="n">
+        <v>511</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
         <v>3775</v>
-      </c>
-      <c r="F191" t="n">
-        <v>81</v>
-      </c>
-      <c r="G191" t="n">
-        <v>511</v>
       </c>
     </row>
     <row r="192">
@@ -5094,13 +5807,16 @@
         <v>19108</v>
       </c>
       <c r="E192" t="n">
+        <v>79</v>
+      </c>
+      <c r="F192" t="n">
+        <v>511</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
         <v>3783</v>
-      </c>
-      <c r="F192" t="n">
-        <v>79</v>
-      </c>
-      <c r="G192" t="n">
-        <v>511</v>
       </c>
     </row>
     <row r="193">
@@ -5119,13 +5835,16 @@
         <v>18674</v>
       </c>
       <c r="E193" t="n">
+        <v>77</v>
+      </c>
+      <c r="F193" t="n">
+        <v>461</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
         <v>4017</v>
-      </c>
-      <c r="F193" t="n">
-        <v>77</v>
-      </c>
-      <c r="G193" t="n">
-        <v>461</v>
       </c>
     </row>
     <row r="194">
@@ -5144,13 +5863,16 @@
         <v>18442</v>
       </c>
       <c r="E194" t="n">
+        <v>74</v>
+      </c>
+      <c r="F194" t="n">
+        <v>461</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
         <v>4021</v>
-      </c>
-      <c r="F194" t="n">
-        <v>74</v>
-      </c>
-      <c r="G194" t="n">
-        <v>461</v>
       </c>
     </row>
     <row r="195">
@@ -5169,13 +5891,16 @@
         <v>17720</v>
       </c>
       <c r="E195" t="n">
+        <v>69</v>
+      </c>
+      <c r="F195" t="n">
+        <v>455</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
         <v>4030</v>
-      </c>
-      <c r="F195" t="n">
-        <v>69</v>
-      </c>
-      <c r="G195" t="n">
-        <v>455</v>
       </c>
     </row>
     <row r="196">
@@ -5194,13 +5919,16 @@
         <v>17152</v>
       </c>
       <c r="E196" t="n">
+        <v>65</v>
+      </c>
+      <c r="F196" t="n">
+        <v>445</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
         <v>4017</v>
-      </c>
-      <c r="F196" t="n">
-        <v>65</v>
-      </c>
-      <c r="G196" t="n">
-        <v>445</v>
       </c>
     </row>
     <row r="197">
@@ -5219,13 +5947,16 @@
         <v>16484</v>
       </c>
       <c r="E197" t="n">
+        <v>61</v>
+      </c>
+      <c r="F197" t="n">
+        <v>409</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
         <v>3933</v>
-      </c>
-      <c r="F197" t="n">
-        <v>61</v>
-      </c>
-      <c r="G197" t="n">
-        <v>409</v>
       </c>
     </row>
     <row r="198">
@@ -5244,13 +5975,16 @@
         <v>16464</v>
       </c>
       <c r="E198" t="n">
+        <v>53</v>
+      </c>
+      <c r="F198" t="n">
+        <v>409</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
         <v>3816</v>
-      </c>
-      <c r="F198" t="n">
-        <v>53</v>
-      </c>
-      <c r="G198" t="n">
-        <v>409</v>
       </c>
     </row>
     <row r="199">
@@ -5269,13 +6003,16 @@
         <v>15479</v>
       </c>
       <c r="E199" t="n">
+        <v>50</v>
+      </c>
+      <c r="F199" t="n">
+        <v>391</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
         <v>3843</v>
-      </c>
-      <c r="F199" t="n">
-        <v>50</v>
-      </c>
-      <c r="G199" t="n">
-        <v>391</v>
       </c>
     </row>
     <row r="200">
@@ -5294,13 +6031,16 @@
         <v>14836</v>
       </c>
       <c r="E200" t="n">
+        <v>43</v>
+      </c>
+      <c r="F200" t="n">
+        <v>381</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
         <v>3881</v>
-      </c>
-      <c r="F200" t="n">
-        <v>43</v>
-      </c>
-      <c r="G200" t="n">
-        <v>381</v>
       </c>
     </row>
     <row r="201">
@@ -5319,13 +6059,16 @@
         <v>14490</v>
       </c>
       <c r="E201" t="n">
+        <v>42</v>
+      </c>
+      <c r="F201" t="n">
+        <v>381</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
         <v>3926</v>
-      </c>
-      <c r="F201" t="n">
-        <v>42</v>
-      </c>
-      <c r="G201" t="n">
-        <v>381</v>
       </c>
     </row>
     <row r="202">
@@ -5344,13 +6087,16 @@
         <v>14391</v>
       </c>
       <c r="E202" t="n">
+        <v>41</v>
+      </c>
+      <c r="F202" t="n">
+        <v>381</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
         <v>3922</v>
-      </c>
-      <c r="F202" t="n">
-        <v>41</v>
-      </c>
-      <c r="G202" t="n">
-        <v>381</v>
       </c>
     </row>
     <row r="203">
@@ -5369,13 +6115,16 @@
         <v>13778</v>
       </c>
       <c r="E203" t="n">
+        <v>37</v>
+      </c>
+      <c r="F203" t="n">
+        <v>381</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
         <v>3833</v>
-      </c>
-      <c r="F203" t="n">
-        <v>37</v>
-      </c>
-      <c r="G203" t="n">
-        <v>381</v>
       </c>
     </row>
     <row r="204">
@@ -5394,13 +6143,16 @@
         <v>13664</v>
       </c>
       <c r="E204" t="n">
+        <v>35</v>
+      </c>
+      <c r="F204" t="n">
+        <v>381</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
         <v>3604</v>
-      </c>
-      <c r="F204" t="n">
-        <v>35</v>
-      </c>
-      <c r="G204" t="n">
-        <v>381</v>
       </c>
     </row>
     <row r="205">
@@ -5419,13 +6171,16 @@
         <v>13026</v>
       </c>
       <c r="E205" t="n">
+        <v>34</v>
+      </c>
+      <c r="F205" t="n">
+        <v>381</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
         <v>3348</v>
-      </c>
-      <c r="F205" t="n">
-        <v>34</v>
-      </c>
-      <c r="G205" t="n">
-        <v>381</v>
       </c>
     </row>
     <row r="206">
@@ -5444,13 +6199,16 @@
         <v>12399</v>
       </c>
       <c r="E206" t="n">
+        <v>30</v>
+      </c>
+      <c r="F206" t="n">
+        <v>381</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
         <v>3351</v>
-      </c>
-      <c r="F206" t="n">
-        <v>30</v>
-      </c>
-      <c r="G206" t="n">
-        <v>381</v>
       </c>
     </row>
     <row r="207">
@@ -5469,13 +6227,16 @@
         <v>11420</v>
       </c>
       <c r="E207" t="n">
+        <v>28</v>
+      </c>
+      <c r="F207" t="n">
+        <v>369</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
         <v>3268</v>
-      </c>
-      <c r="F207" t="n">
-        <v>28</v>
-      </c>
-      <c r="G207" t="n">
-        <v>369</v>
       </c>
     </row>
     <row r="208">
@@ -5494,13 +6255,16 @@
         <v>11384</v>
       </c>
       <c r="E208" t="n">
+        <v>26</v>
+      </c>
+      <c r="F208" t="n">
+        <v>369</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
         <v>3197</v>
-      </c>
-      <c r="F208" t="n">
-        <v>26</v>
-      </c>
-      <c r="G208" t="n">
-        <v>369</v>
       </c>
     </row>
     <row r="209">
@@ -5519,13 +6283,16 @@
         <v>10965</v>
       </c>
       <c r="E209" t="n">
+        <v>25</v>
+      </c>
+      <c r="F209" t="n">
+        <v>357</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
         <v>3505</v>
-      </c>
-      <c r="F209" t="n">
-        <v>25</v>
-      </c>
-      <c r="G209" t="n">
-        <v>357</v>
       </c>
     </row>
     <row r="210">
@@ -5544,13 +6311,16 @@
         <v>10403</v>
       </c>
       <c r="E210" t="n">
+        <v>23</v>
+      </c>
+      <c r="F210" t="n">
+        <v>342</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
         <v>3518</v>
-      </c>
-      <c r="F210" t="n">
-        <v>23</v>
-      </c>
-      <c r="G210" t="n">
-        <v>342</v>
       </c>
     </row>
     <row r="211">
@@ -5569,13 +6339,16 @@
         <v>9638</v>
       </c>
       <c r="E211" t="n">
+        <v>21</v>
+      </c>
+      <c r="F211" t="n">
+        <v>306</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
         <v>3559</v>
-      </c>
-      <c r="F211" t="n">
-        <v>21</v>
-      </c>
-      <c r="G211" t="n">
-        <v>306</v>
       </c>
     </row>
     <row r="212">
@@ -5594,13 +6367,16 @@
         <v>9118</v>
       </c>
       <c r="E212" t="n">
+        <v>20</v>
+      </c>
+      <c r="F212" t="n">
+        <v>306</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
         <v>3631</v>
-      </c>
-      <c r="F212" t="n">
-        <v>20</v>
-      </c>
-      <c r="G212" t="n">
-        <v>306</v>
       </c>
     </row>
     <row r="213">
@@ -5619,13 +6395,16 @@
         <v>8606</v>
       </c>
       <c r="E213" t="n">
+        <v>19</v>
+      </c>
+      <c r="F213" t="n">
+        <v>306</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
         <v>3809</v>
-      </c>
-      <c r="F213" t="n">
-        <v>19</v>
-      </c>
-      <c r="G213" t="n">
-        <v>306</v>
       </c>
     </row>
     <row r="214">
@@ -5644,13 +6423,16 @@
         <v>8323</v>
       </c>
       <c r="E214" t="n">
+        <v>17</v>
+      </c>
+      <c r="F214" t="n">
+        <v>300</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
         <v>3855</v>
-      </c>
-      <c r="F214" t="n">
-        <v>17</v>
-      </c>
-      <c r="G214" t="n">
-        <v>300</v>
       </c>
     </row>
     <row r="215">
@@ -5669,13 +6451,16 @@
         <v>8114</v>
       </c>
       <c r="E215" t="n">
+        <v>17</v>
+      </c>
+      <c r="F215" t="n">
+        <v>262</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
         <v>4209</v>
-      </c>
-      <c r="F215" t="n">
-        <v>17</v>
-      </c>
-      <c r="G215" t="n">
-        <v>262</v>
       </c>
     </row>
     <row r="216">
@@ -5694,13 +6479,16 @@
         <v>7943</v>
       </c>
       <c r="E216" t="n">
+        <v>17</v>
+      </c>
+      <c r="F216" t="n">
+        <v>251</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
         <v>4204</v>
-      </c>
-      <c r="F216" t="n">
-        <v>17</v>
-      </c>
-      <c r="G216" t="n">
-        <v>251</v>
       </c>
     </row>
     <row r="217">
@@ -5719,13 +6507,16 @@
         <v>7581</v>
       </c>
       <c r="E217" t="n">
+        <v>16</v>
+      </c>
+      <c r="F217" t="n">
+        <v>251</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
         <v>4189</v>
-      </c>
-      <c r="F217" t="n">
-        <v>16</v>
-      </c>
-      <c r="G217" t="n">
-        <v>251</v>
       </c>
     </row>
     <row r="218">
@@ -5744,13 +6535,16 @@
         <v>6994</v>
       </c>
       <c r="E218" t="n">
+        <v>16</v>
+      </c>
+      <c r="F218" t="n">
+        <v>234</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
         <v>4714</v>
-      </c>
-      <c r="F218" t="n">
-        <v>16</v>
-      </c>
-      <c r="G218" t="n">
-        <v>234</v>
       </c>
     </row>
     <row r="219">
@@ -5769,13 +6563,16 @@
         <v>6565</v>
       </c>
       <c r="E219" t="n">
+        <v>15</v>
+      </c>
+      <c r="F219" t="n">
+        <v>214</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
         <v>5128</v>
-      </c>
-      <c r="F219" t="n">
-        <v>15</v>
-      </c>
-      <c r="G219" t="n">
-        <v>214</v>
       </c>
     </row>
     <row r="220">
@@ -5794,13 +6591,16 @@
         <v>5921</v>
       </c>
       <c r="E220" t="n">
+        <v>14</v>
+      </c>
+      <c r="F220" t="n">
+        <v>196</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
         <v>5326</v>
-      </c>
-      <c r="F220" t="n">
-        <v>14</v>
-      </c>
-      <c r="G220" t="n">
-        <v>196</v>
       </c>
     </row>
     <row r="221">
@@ -5819,13 +6619,16 @@
         <v>5559</v>
       </c>
       <c r="E221" t="n">
+        <v>14</v>
+      </c>
+      <c r="F221" t="n">
+        <v>179</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
         <v>5457</v>
-      </c>
-      <c r="F221" t="n">
-        <v>14</v>
-      </c>
-      <c r="G221" t="n">
-        <v>179</v>
       </c>
     </row>
     <row r="222">
@@ -5844,12 +6647,17 @@
         <v>5223</v>
       </c>
       <c r="E222" t="n">
+        <v>14</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
         <v>6164</v>
       </c>
-      <c r="F222" t="n">
-        <v>14</v>
-      </c>
-      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5867,12 +6675,17 @@
         <v>4960</v>
       </c>
       <c r="E223" t="n">
+        <v>14</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
         <v>6096</v>
       </c>
-      <c r="F223" t="n">
-        <v>14</v>
-      </c>
-      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5890,12 +6703,17 @@
         <v>4607</v>
       </c>
       <c r="E224" t="n">
+        <v>14</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
         <v>6244</v>
       </c>
-      <c r="F224" t="n">
-        <v>14</v>
-      </c>
-      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5913,12 +6731,17 @@
         <v>4159</v>
       </c>
       <c r="E225" t="n">
+        <v>14</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
         <v>6587</v>
       </c>
-      <c r="F225" t="n">
-        <v>14</v>
-      </c>
-      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5936,12 +6759,17 @@
         <v>3734</v>
       </c>
       <c r="E226" t="n">
+        <v>13</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
         <v>6623</v>
       </c>
-      <c r="F226" t="n">
-        <v>13</v>
-      </c>
-      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5959,12 +6787,17 @@
         <v>3318</v>
       </c>
       <c r="E227" t="n">
+        <v>12</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
         <v>6788</v>
       </c>
-      <c r="F227" t="n">
-        <v>12</v>
-      </c>
-      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5982,12 +6815,17 @@
         <v>3139</v>
       </c>
       <c r="E228" t="n">
+        <v>11</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
         <v>6940</v>
       </c>
-      <c r="F228" t="n">
-        <v>11</v>
-      </c>
-      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6005,12 +6843,17 @@
         <v>2923</v>
       </c>
       <c r="E229" t="n">
+        <v>10</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
         <v>7443</v>
       </c>
-      <c r="F229" t="n">
-        <v>10</v>
-      </c>
-      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6028,12 +6871,17 @@
         <v>2831</v>
       </c>
       <c r="E230" t="n">
+        <v>7</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
         <v>8092</v>
       </c>
-      <c r="F230" t="n">
-        <v>7</v>
-      </c>
-      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6051,12 +6899,17 @@
         <v>2658</v>
       </c>
       <c r="E231" t="n">
+        <v>7</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
         <v>8346</v>
       </c>
-      <c r="F231" t="n">
-        <v>7</v>
-      </c>
-      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6074,12 +6927,17 @@
         <v>2341</v>
       </c>
       <c r="E232" t="n">
+        <v>6</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
         <v>8984</v>
       </c>
-      <c r="F232" t="n">
-        <v>6</v>
-      </c>
-      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6097,12 +6955,17 @@
         <v>1999</v>
       </c>
       <c r="E233" t="n">
+        <v>5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
         <v>10504</v>
       </c>
-      <c r="F233" t="n">
-        <v>5</v>
-      </c>
-      <c r="G233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6271,6 +6271,156 @@
         <v>10504</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>11.01.2021</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>38140</v>
+      </c>
+      <c r="C234" t="n">
+        <v>168895</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1902</v>
+      </c>
+      <c r="E234" t="n">
+        <v>24326</v>
+      </c>
+      <c r="F234" t="n">
+        <v>11912</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>10.01.2021</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>38099</v>
+      </c>
+      <c r="C235" t="n">
+        <v>167957</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1889</v>
+      </c>
+      <c r="E235" t="n">
+        <v>24270</v>
+      </c>
+      <c r="F235" t="n">
+        <v>11940</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>09.01.2021</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>38002</v>
+      </c>
+      <c r="C236" t="n">
+        <v>166952</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E236" t="n">
+        <v>24117</v>
+      </c>
+      <c r="F236" t="n">
+        <v>12010</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>37853</v>
+      </c>
+      <c r="C237" t="n">
+        <v>165764</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1868</v>
+      </c>
+      <c r="E237" t="n">
+        <v>23943</v>
+      </c>
+      <c r="F237" t="n">
+        <v>12042</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>37519</v>
+      </c>
+      <c r="C238" t="n">
+        <v>164164</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E238" t="n">
+        <v>23624</v>
+      </c>
+      <c r="F238" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>03.01.2021</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>37335</v>
+      </c>
+      <c r="C239" t="n">
+        <v>163324</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E239" t="n">
+        <v>23437</v>
+      </c>
+      <c r="F239" t="n">
+        <v>12097</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>38140</v>
+        <v>38244</v>
       </c>
       <c r="C234" t="n">
-        <v>168895</v>
+        <v>170099</v>
       </c>
       <c r="D234" t="n">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="E234" t="n">
-        <v>24326</v>
+        <v>24461</v>
       </c>
       <c r="F234" t="n">
-        <v>11912</v>
+        <v>11874</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>38099</v>
+        <v>38140</v>
       </c>
       <c r="C235" t="n">
-        <v>167957</v>
+        <v>168895</v>
       </c>
       <c r="D235" t="n">
-        <v>1889</v>
+        <v>1902</v>
       </c>
       <c r="E235" t="n">
-        <v>24270</v>
+        <v>24326</v>
       </c>
       <c r="F235" t="n">
-        <v>11940</v>
+        <v>11912</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>38002</v>
+        <v>38099</v>
       </c>
       <c r="C236" t="n">
-        <v>166952</v>
+        <v>167957</v>
       </c>
       <c r="D236" t="n">
-        <v>1875</v>
+        <v>1889</v>
       </c>
       <c r="E236" t="n">
-        <v>24117</v>
+        <v>24270</v>
       </c>
       <c r="F236" t="n">
-        <v>12010</v>
+        <v>11940</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>37853</v>
+        <v>38002</v>
       </c>
       <c r="C237" t="n">
-        <v>165764</v>
+        <v>166952</v>
       </c>
       <c r="D237" t="n">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="E237" t="n">
-        <v>23943</v>
+        <v>24117</v>
       </c>
       <c r="F237" t="n">
-        <v>12042</v>
+        <v>12010</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>08.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>37519</v>
+        <v>37853</v>
       </c>
       <c r="C238" t="n">
-        <v>164164</v>
+        <v>165764</v>
       </c>
       <c r="D238" t="n">
-        <v>1828</v>
+        <v>1868</v>
       </c>
       <c r="E238" t="n">
-        <v>23624</v>
+        <v>23943</v>
       </c>
       <c r="F238" t="n">
-        <v>12067</v>
+        <v>12042</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,25 +6399,50 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>37519</v>
+      </c>
+      <c r="C239" t="n">
+        <v>164164</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E239" t="n">
+        <v>23624</v>
+      </c>
+      <c r="F239" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B239" t="n">
+      <c r="B240" t="n">
         <v>37335</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C240" t="n">
         <v>163324</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D240" t="n">
         <v>1801</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E240" t="n">
         <v>23437</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F240" t="n">
         <v>12097</v>
       </c>
-      <c r="G239" t="n">
+      <c r="G240" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>38244</v>
+        <v>39109</v>
       </c>
       <c r="C234" t="n">
-        <v>170099</v>
+        <v>176645</v>
       </c>
       <c r="D234" t="n">
-        <v>1909</v>
+        <v>1972</v>
       </c>
       <c r="E234" t="n">
-        <v>24461</v>
+        <v>25450</v>
       </c>
       <c r="F234" t="n">
-        <v>11874</v>
+        <v>4740</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>38140</v>
+        <v>38983</v>
       </c>
       <c r="C235" t="n">
-        <v>168895</v>
+        <v>176057</v>
       </c>
       <c r="D235" t="n">
-        <v>1902</v>
+        <v>1969</v>
       </c>
       <c r="E235" t="n">
-        <v>24326</v>
+        <v>25345</v>
       </c>
       <c r="F235" t="n">
-        <v>11912</v>
+        <v>4805</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>38099</v>
+        <v>38892</v>
       </c>
       <c r="C236" t="n">
-        <v>167957</v>
+        <v>175326</v>
       </c>
       <c r="D236" t="n">
-        <v>1889</v>
+        <v>1959</v>
       </c>
       <c r="E236" t="n">
-        <v>24270</v>
+        <v>25173</v>
       </c>
       <c r="F236" t="n">
-        <v>11940</v>
+        <v>11760</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>38002</v>
+        <v>38737</v>
       </c>
       <c r="C237" t="n">
-        <v>166952</v>
+        <v>174793</v>
       </c>
       <c r="D237" t="n">
-        <v>1875</v>
+        <v>1954</v>
       </c>
       <c r="E237" t="n">
-        <v>24117</v>
+        <v>25099</v>
       </c>
       <c r="F237" t="n">
-        <v>12010</v>
+        <v>11784</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>37853</v>
+        <v>38767</v>
       </c>
       <c r="C238" t="n">
-        <v>165764</v>
+        <v>174224</v>
       </c>
       <c r="D238" t="n">
-        <v>1868</v>
+        <v>1945</v>
       </c>
       <c r="E238" t="n">
-        <v>23943</v>
+        <v>25012</v>
       </c>
       <c r="F238" t="n">
-        <v>12042</v>
+        <v>11810</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>37519</v>
+        <v>38652</v>
       </c>
       <c r="C239" t="n">
-        <v>164164</v>
+        <v>173248</v>
       </c>
       <c r="D239" t="n">
-        <v>1828</v>
+        <v>1931</v>
       </c>
       <c r="E239" t="n">
-        <v>23624</v>
+        <v>24848</v>
       </c>
       <c r="F239" t="n">
-        <v>12067</v>
+        <v>11873</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,25 +6424,225 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
+          <t>14.01.2021</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>38581</v>
+      </c>
+      <c r="C240" t="n">
+        <v>172581</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1923</v>
+      </c>
+      <c r="E240" t="n">
+        <v>24715</v>
+      </c>
+      <c r="F240" t="n">
+        <v>11943</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>13.01.2021</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>38421</v>
+      </c>
+      <c r="C241" t="n">
+        <v>171474</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E241" t="n">
+        <v>24461</v>
+      </c>
+      <c r="F241" t="n">
+        <v>12044</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>12.01.2021</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>38244</v>
+      </c>
+      <c r="C242" t="n">
+        <v>170099</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E242" t="n">
+        <v>24461</v>
+      </c>
+      <c r="F242" t="n">
+        <v>11874</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>11.01.2021</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>38140</v>
+      </c>
+      <c r="C243" t="n">
+        <v>168895</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1902</v>
+      </c>
+      <c r="E243" t="n">
+        <v>24326</v>
+      </c>
+      <c r="F243" t="n">
+        <v>11912</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>10.01.2021</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>38099</v>
+      </c>
+      <c r="C244" t="n">
+        <v>167957</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1889</v>
+      </c>
+      <c r="E244" t="n">
+        <v>24270</v>
+      </c>
+      <c r="F244" t="n">
+        <v>11940</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>09.01.2021</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>38002</v>
+      </c>
+      <c r="C245" t="n">
+        <v>166952</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E245" t="n">
+        <v>24117</v>
+      </c>
+      <c r="F245" t="n">
+        <v>12010</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>37853</v>
+      </c>
+      <c r="C246" t="n">
+        <v>165764</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1868</v>
+      </c>
+      <c r="E246" t="n">
+        <v>23943</v>
+      </c>
+      <c r="F246" t="n">
+        <v>12042</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>37519</v>
+      </c>
+      <c r="C247" t="n">
+        <v>164164</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E247" t="n">
+        <v>23624</v>
+      </c>
+      <c r="F247" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B240" t="n">
+      <c r="B248" t="n">
         <v>37335</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C248" t="n">
         <v>163324</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D248" t="n">
         <v>1801</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E248" t="n">
         <v>23437</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F248" t="n">
         <v>12097</v>
       </c>
-      <c r="G240" t="n">
+      <c r="G248" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>39109</v>
+        <v>39274</v>
       </c>
       <c r="C234" t="n">
-        <v>176645</v>
+        <v>177274</v>
       </c>
       <c r="D234" t="n">
-        <v>1972</v>
+        <v>1978</v>
       </c>
       <c r="E234" t="n">
-        <v>25450</v>
+        <v>25701</v>
       </c>
       <c r="F234" t="n">
-        <v>4740</v>
+        <v>4930</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>38983</v>
+        <v>39109</v>
       </c>
       <c r="C235" t="n">
-        <v>176057</v>
+        <v>176645</v>
       </c>
       <c r="D235" t="n">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="E235" t="n">
-        <v>25345</v>
+        <v>25450</v>
       </c>
       <c r="F235" t="n">
-        <v>4805</v>
+        <v>4740</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>38892</v>
+        <v>38983</v>
       </c>
       <c r="C236" t="n">
-        <v>175326</v>
+        <v>176057</v>
       </c>
       <c r="D236" t="n">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="E236" t="n">
-        <v>25173</v>
+        <v>25345</v>
       </c>
       <c r="F236" t="n">
-        <v>11760</v>
+        <v>4805</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>38737</v>
+        <v>38892</v>
       </c>
       <c r="C237" t="n">
-        <v>174793</v>
+        <v>175326</v>
       </c>
       <c r="D237" t="n">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="E237" t="n">
-        <v>25099</v>
+        <v>25173</v>
       </c>
       <c r="F237" t="n">
-        <v>11784</v>
+        <v>11760</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>38767</v>
+        <v>38737</v>
       </c>
       <c r="C238" t="n">
-        <v>174224</v>
+        <v>174793</v>
       </c>
       <c r="D238" t="n">
-        <v>1945</v>
+        <v>1954</v>
       </c>
       <c r="E238" t="n">
-        <v>25012</v>
+        <v>25099</v>
       </c>
       <c r="F238" t="n">
-        <v>11810</v>
+        <v>11784</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>38652</v>
+        <v>38767</v>
       </c>
       <c r="C239" t="n">
-        <v>173248</v>
+        <v>174224</v>
       </c>
       <c r="D239" t="n">
-        <v>1931</v>
+        <v>1945</v>
       </c>
       <c r="E239" t="n">
-        <v>24848</v>
+        <v>25012</v>
       </c>
       <c r="F239" t="n">
-        <v>11873</v>
+        <v>11810</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>38581</v>
+        <v>38652</v>
       </c>
       <c r="C240" t="n">
-        <v>172581</v>
+        <v>173248</v>
       </c>
       <c r="D240" t="n">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="E240" t="n">
-        <v>24715</v>
+        <v>24848</v>
       </c>
       <c r="F240" t="n">
-        <v>11943</v>
+        <v>11873</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>38421</v>
+        <v>38581</v>
       </c>
       <c r="C241" t="n">
-        <v>171474</v>
+        <v>172581</v>
       </c>
       <c r="D241" t="n">
-        <v>1916</v>
+        <v>1923</v>
       </c>
       <c r="E241" t="n">
-        <v>24461</v>
+        <v>24715</v>
       </c>
       <c r="F241" t="n">
-        <v>12044</v>
+        <v>11943</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>38244</v>
+        <v>38421</v>
       </c>
       <c r="C242" t="n">
-        <v>170099</v>
+        <v>171474</v>
       </c>
       <c r="D242" t="n">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="E242" t="n">
         <v>24461</v>
       </c>
       <c r="F242" t="n">
-        <v>11874</v>
+        <v>12044</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>38140</v>
+        <v>38244</v>
       </c>
       <c r="C243" t="n">
-        <v>168895</v>
+        <v>170099</v>
       </c>
       <c r="D243" t="n">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="E243" t="n">
-        <v>24326</v>
+        <v>24461</v>
       </c>
       <c r="F243" t="n">
-        <v>11912</v>
+        <v>11874</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>38099</v>
+        <v>38140</v>
       </c>
       <c r="C244" t="n">
-        <v>167957</v>
+        <v>168895</v>
       </c>
       <c r="D244" t="n">
-        <v>1889</v>
+        <v>1902</v>
       </c>
       <c r="E244" t="n">
-        <v>24270</v>
+        <v>24326</v>
       </c>
       <c r="F244" t="n">
-        <v>11940</v>
+        <v>11912</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>38002</v>
+        <v>38099</v>
       </c>
       <c r="C245" t="n">
-        <v>166952</v>
+        <v>167957</v>
       </c>
       <c r="D245" t="n">
-        <v>1875</v>
+        <v>1889</v>
       </c>
       <c r="E245" t="n">
-        <v>24117</v>
+        <v>24270</v>
       </c>
       <c r="F245" t="n">
-        <v>12010</v>
+        <v>11940</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>37853</v>
+        <v>38002</v>
       </c>
       <c r="C246" t="n">
-        <v>165764</v>
+        <v>166952</v>
       </c>
       <c r="D246" t="n">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="E246" t="n">
-        <v>23943</v>
+        <v>24117</v>
       </c>
       <c r="F246" t="n">
-        <v>12042</v>
+        <v>12010</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>08.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>37519</v>
+        <v>37853</v>
       </c>
       <c r="C247" t="n">
-        <v>164164</v>
+        <v>165764</v>
       </c>
       <c r="D247" t="n">
-        <v>1828</v>
+        <v>1868</v>
       </c>
       <c r="E247" t="n">
-        <v>23624</v>
+        <v>23943</v>
       </c>
       <c r="F247" t="n">
-        <v>12067</v>
+        <v>12042</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,25 +6624,50 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>37519</v>
+      </c>
+      <c r="C248" t="n">
+        <v>164164</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E248" t="n">
+        <v>23624</v>
+      </c>
+      <c r="F248" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B248" t="n">
+      <c r="B249" t="n">
         <v>37335</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C249" t="n">
         <v>163324</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D249" t="n">
         <v>1801</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E249" t="n">
         <v>23437</v>
       </c>
-      <c r="F248" t="n">
+      <c r="F249" t="n">
         <v>12097</v>
       </c>
-      <c r="G248" t="n">
+      <c r="G249" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>39274</v>
+        <v>39602</v>
       </c>
       <c r="C234" t="n">
-        <v>177274</v>
+        <v>179690</v>
       </c>
       <c r="D234" t="n">
-        <v>1978</v>
+        <v>2013</v>
       </c>
       <c r="E234" t="n">
-        <v>25701</v>
+        <v>26107</v>
       </c>
       <c r="F234" t="n">
-        <v>4930</v>
+        <v>4884</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>39109</v>
+        <v>39366</v>
       </c>
       <c r="C235" t="n">
-        <v>176645</v>
+        <v>177870</v>
       </c>
       <c r="D235" t="n">
-        <v>1972</v>
+        <v>1992</v>
       </c>
       <c r="E235" t="n">
-        <v>25450</v>
+        <v>25769</v>
       </c>
       <c r="F235" t="n">
-        <v>4740</v>
+        <v>4852</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>38983</v>
+        <v>39274</v>
       </c>
       <c r="C236" t="n">
-        <v>176057</v>
+        <v>177274</v>
       </c>
       <c r="D236" t="n">
-        <v>1969</v>
+        <v>1978</v>
       </c>
       <c r="E236" t="n">
-        <v>25345</v>
+        <v>25701</v>
       </c>
       <c r="F236" t="n">
-        <v>4805</v>
+        <v>4930</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>38892</v>
+        <v>39109</v>
       </c>
       <c r="C237" t="n">
-        <v>175326</v>
+        <v>176645</v>
       </c>
       <c r="D237" t="n">
-        <v>1959</v>
+        <v>1972</v>
       </c>
       <c r="E237" t="n">
-        <v>25173</v>
+        <v>25450</v>
       </c>
       <c r="F237" t="n">
-        <v>11760</v>
+        <v>4740</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>38737</v>
+        <v>38983</v>
       </c>
       <c r="C238" t="n">
-        <v>174793</v>
+        <v>176057</v>
       </c>
       <c r="D238" t="n">
-        <v>1954</v>
+        <v>1969</v>
       </c>
       <c r="E238" t="n">
-        <v>25099</v>
+        <v>25345</v>
       </c>
       <c r="F238" t="n">
-        <v>11784</v>
+        <v>4805</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>38767</v>
+        <v>38892</v>
       </c>
       <c r="C239" t="n">
-        <v>174224</v>
+        <v>175326</v>
       </c>
       <c r="D239" t="n">
-        <v>1945</v>
+        <v>1959</v>
       </c>
       <c r="E239" t="n">
-        <v>25012</v>
+        <v>25173</v>
       </c>
       <c r="F239" t="n">
-        <v>11810</v>
+        <v>11760</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>38652</v>
+        <v>38737</v>
       </c>
       <c r="C240" t="n">
-        <v>173248</v>
+        <v>174793</v>
       </c>
       <c r="D240" t="n">
-        <v>1931</v>
+        <v>1954</v>
       </c>
       <c r="E240" t="n">
-        <v>24848</v>
+        <v>25099</v>
       </c>
       <c r="F240" t="n">
-        <v>11873</v>
+        <v>11784</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>38581</v>
+        <v>38767</v>
       </c>
       <c r="C241" t="n">
-        <v>172581</v>
+        <v>174224</v>
       </c>
       <c r="D241" t="n">
-        <v>1923</v>
+        <v>1945</v>
       </c>
       <c r="E241" t="n">
-        <v>24715</v>
+        <v>25012</v>
       </c>
       <c r="F241" t="n">
-        <v>11943</v>
+        <v>11810</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>38421</v>
+        <v>38652</v>
       </c>
       <c r="C242" t="n">
-        <v>171474</v>
+        <v>173248</v>
       </c>
       <c r="D242" t="n">
-        <v>1916</v>
+        <v>1931</v>
       </c>
       <c r="E242" t="n">
-        <v>24461</v>
+        <v>24848</v>
       </c>
       <c r="F242" t="n">
-        <v>12044</v>
+        <v>11873</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>38244</v>
+        <v>38581</v>
       </c>
       <c r="C243" t="n">
-        <v>170099</v>
+        <v>172581</v>
       </c>
       <c r="D243" t="n">
-        <v>1909</v>
+        <v>1923</v>
       </c>
       <c r="E243" t="n">
-        <v>24461</v>
+        <v>24715</v>
       </c>
       <c r="F243" t="n">
-        <v>11874</v>
+        <v>11943</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>38140</v>
+        <v>38421</v>
       </c>
       <c r="C244" t="n">
-        <v>168895</v>
+        <v>171474</v>
       </c>
       <c r="D244" t="n">
-        <v>1902</v>
+        <v>1916</v>
       </c>
       <c r="E244" t="n">
-        <v>24326</v>
+        <v>24461</v>
       </c>
       <c r="F244" t="n">
-        <v>11912</v>
+        <v>12044</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>38099</v>
+        <v>38244</v>
       </c>
       <c r="C245" t="n">
-        <v>167957</v>
+        <v>170099</v>
       </c>
       <c r="D245" t="n">
-        <v>1889</v>
+        <v>1909</v>
       </c>
       <c r="E245" t="n">
-        <v>24270</v>
+        <v>24461</v>
       </c>
       <c r="F245" t="n">
-        <v>11940</v>
+        <v>11874</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>38002</v>
+        <v>38140</v>
       </c>
       <c r="C246" t="n">
-        <v>166952</v>
+        <v>168895</v>
       </c>
       <c r="D246" t="n">
-        <v>1875</v>
+        <v>1902</v>
       </c>
       <c r="E246" t="n">
-        <v>24117</v>
+        <v>24326</v>
       </c>
       <c r="F246" t="n">
-        <v>12010</v>
+        <v>11912</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>37853</v>
+        <v>38099</v>
       </c>
       <c r="C247" t="n">
-        <v>165764</v>
+        <v>167957</v>
       </c>
       <c r="D247" t="n">
-        <v>1868</v>
+        <v>1889</v>
       </c>
       <c r="E247" t="n">
-        <v>23943</v>
+        <v>24270</v>
       </c>
       <c r="F247" t="n">
-        <v>12042</v>
+        <v>11940</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>37519</v>
+        <v>38002</v>
       </c>
       <c r="C248" t="n">
-        <v>164164</v>
+        <v>166952</v>
       </c>
       <c r="D248" t="n">
-        <v>1828</v>
+        <v>1875</v>
       </c>
       <c r="E248" t="n">
-        <v>23624</v>
+        <v>24117</v>
       </c>
       <c r="F248" t="n">
-        <v>12067</v>
+        <v>12010</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,25 +6649,75 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>37853</v>
+      </c>
+      <c r="C249" t="n">
+        <v>165764</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1868</v>
+      </c>
+      <c r="E249" t="n">
+        <v>23943</v>
+      </c>
+      <c r="F249" t="n">
+        <v>12042</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>37519</v>
+      </c>
+      <c r="C250" t="n">
+        <v>164164</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E250" t="n">
+        <v>23624</v>
+      </c>
+      <c r="F250" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B249" t="n">
+      <c r="B251" t="n">
         <v>37335</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C251" t="n">
         <v>163324</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D251" t="n">
         <v>1801</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E251" t="n">
         <v>23437</v>
       </c>
-      <c r="F249" t="n">
+      <c r="F251" t="n">
         <v>12097</v>
       </c>
-      <c r="G249" t="n">
+      <c r="G251" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>25.01.2021</t>
+          <t>27.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>39602</v>
+        <v>39833</v>
       </c>
       <c r="C234" t="n">
-        <v>179690</v>
+        <v>181028</v>
       </c>
       <c r="D234" t="n">
-        <v>2013</v>
+        <v>2032</v>
       </c>
       <c r="E234" t="n">
-        <v>26107</v>
+        <v>26342</v>
       </c>
       <c r="F234" t="n">
-        <v>4884</v>
+        <v>4353</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>22.01.2021</t>
+          <t>26.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>39366</v>
+        <v>39708</v>
       </c>
       <c r="C235" t="n">
-        <v>177870</v>
+        <v>180374</v>
       </c>
       <c r="D235" t="n">
-        <v>1992</v>
+        <v>2027</v>
       </c>
       <c r="E235" t="n">
-        <v>25769</v>
+        <v>26210</v>
       </c>
       <c r="F235" t="n">
-        <v>4852</v>
+        <v>4970</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>39274</v>
+        <v>39602</v>
       </c>
       <c r="C236" t="n">
-        <v>177274</v>
+        <v>179690</v>
       </c>
       <c r="D236" t="n">
-        <v>1978</v>
+        <v>2013</v>
       </c>
       <c r="E236" t="n">
-        <v>25701</v>
+        <v>26107</v>
       </c>
       <c r="F236" t="n">
-        <v>4930</v>
+        <v>4884</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>39109</v>
+        <v>39366</v>
       </c>
       <c r="C237" t="n">
-        <v>176645</v>
+        <v>177870</v>
       </c>
       <c r="D237" t="n">
-        <v>1972</v>
+        <v>1992</v>
       </c>
       <c r="E237" t="n">
-        <v>25450</v>
+        <v>25769</v>
       </c>
       <c r="F237" t="n">
-        <v>4740</v>
+        <v>4852</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>38983</v>
+        <v>39274</v>
       </c>
       <c r="C238" t="n">
-        <v>176057</v>
+        <v>177274</v>
       </c>
       <c r="D238" t="n">
-        <v>1969</v>
+        <v>1978</v>
       </c>
       <c r="E238" t="n">
-        <v>25345</v>
+        <v>25701</v>
       </c>
       <c r="F238" t="n">
-        <v>4805</v>
+        <v>4930</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>38892</v>
+        <v>39109</v>
       </c>
       <c r="C239" t="n">
-        <v>175326</v>
+        <v>176645</v>
       </c>
       <c r="D239" t="n">
-        <v>1959</v>
+        <v>1972</v>
       </c>
       <c r="E239" t="n">
-        <v>25173</v>
+        <v>25450</v>
       </c>
       <c r="F239" t="n">
-        <v>11760</v>
+        <v>4740</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>38737</v>
+        <v>38983</v>
       </c>
       <c r="C240" t="n">
-        <v>174793</v>
+        <v>176057</v>
       </c>
       <c r="D240" t="n">
-        <v>1954</v>
+        <v>1969</v>
       </c>
       <c r="E240" t="n">
-        <v>25099</v>
+        <v>25345</v>
       </c>
       <c r="F240" t="n">
-        <v>11784</v>
+        <v>4805</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>38767</v>
+        <v>38892</v>
       </c>
       <c r="C241" t="n">
-        <v>174224</v>
+        <v>175326</v>
       </c>
       <c r="D241" t="n">
-        <v>1945</v>
+        <v>1959</v>
       </c>
       <c r="E241" t="n">
-        <v>25012</v>
+        <v>25173</v>
       </c>
       <c r="F241" t="n">
-        <v>11810</v>
+        <v>11760</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>38652</v>
+        <v>38737</v>
       </c>
       <c r="C242" t="n">
-        <v>173248</v>
+        <v>174793</v>
       </c>
       <c r="D242" t="n">
-        <v>1931</v>
+        <v>1954</v>
       </c>
       <c r="E242" t="n">
-        <v>24848</v>
+        <v>25099</v>
       </c>
       <c r="F242" t="n">
-        <v>11873</v>
+        <v>11784</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>38581</v>
+        <v>38767</v>
       </c>
       <c r="C243" t="n">
-        <v>172581</v>
+        <v>174224</v>
       </c>
       <c r="D243" t="n">
-        <v>1923</v>
+        <v>1945</v>
       </c>
       <c r="E243" t="n">
-        <v>24715</v>
+        <v>25012</v>
       </c>
       <c r="F243" t="n">
-        <v>11943</v>
+        <v>11810</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>38421</v>
+        <v>38652</v>
       </c>
       <c r="C244" t="n">
-        <v>171474</v>
+        <v>173248</v>
       </c>
       <c r="D244" t="n">
-        <v>1916</v>
+        <v>1931</v>
       </c>
       <c r="E244" t="n">
-        <v>24461</v>
+        <v>24848</v>
       </c>
       <c r="F244" t="n">
-        <v>12044</v>
+        <v>11873</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>38244</v>
+        <v>38581</v>
       </c>
       <c r="C245" t="n">
-        <v>170099</v>
+        <v>172581</v>
       </c>
       <c r="D245" t="n">
-        <v>1909</v>
+        <v>1923</v>
       </c>
       <c r="E245" t="n">
-        <v>24461</v>
+        <v>24715</v>
       </c>
       <c r="F245" t="n">
-        <v>11874</v>
+        <v>11943</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>38140</v>
+        <v>38421</v>
       </c>
       <c r="C246" t="n">
-        <v>168895</v>
+        <v>171474</v>
       </c>
       <c r="D246" t="n">
-        <v>1902</v>
+        <v>1916</v>
       </c>
       <c r="E246" t="n">
-        <v>24326</v>
+        <v>24461</v>
       </c>
       <c r="F246" t="n">
-        <v>11912</v>
+        <v>12044</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>38099</v>
+        <v>38244</v>
       </c>
       <c r="C247" t="n">
-        <v>167957</v>
+        <v>170099</v>
       </c>
       <c r="D247" t="n">
-        <v>1889</v>
+        <v>1909</v>
       </c>
       <c r="E247" t="n">
-        <v>24270</v>
+        <v>24461</v>
       </c>
       <c r="F247" t="n">
-        <v>11940</v>
+        <v>11874</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>38002</v>
+        <v>38140</v>
       </c>
       <c r="C248" t="n">
-        <v>166952</v>
+        <v>168895</v>
       </c>
       <c r="D248" t="n">
-        <v>1875</v>
+        <v>1902</v>
       </c>
       <c r="E248" t="n">
-        <v>24117</v>
+        <v>24326</v>
       </c>
       <c r="F248" t="n">
-        <v>12010</v>
+        <v>11912</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,23 +6649,23 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>37853</v>
+        <v>38099</v>
       </c>
       <c r="C249" t="n">
-        <v>165764</v>
+        <v>167957</v>
       </c>
       <c r="D249" t="n">
-        <v>1868</v>
+        <v>1889</v>
       </c>
       <c r="E249" t="n">
-        <v>23943</v>
+        <v>24270</v>
       </c>
       <c r="F249" t="n">
-        <v>12042</v>
+        <v>11940</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6674,23 +6674,23 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>37519</v>
+        <v>38002</v>
       </c>
       <c r="C250" t="n">
-        <v>164164</v>
+        <v>166952</v>
       </c>
       <c r="D250" t="n">
-        <v>1828</v>
+        <v>1875</v>
       </c>
       <c r="E250" t="n">
-        <v>23624</v>
+        <v>24117</v>
       </c>
       <c r="F250" t="n">
-        <v>12067</v>
+        <v>12010</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6699,25 +6699,75 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>37853</v>
+      </c>
+      <c r="C251" t="n">
+        <v>165764</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1868</v>
+      </c>
+      <c r="E251" t="n">
+        <v>23943</v>
+      </c>
+      <c r="F251" t="n">
+        <v>12042</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>37519</v>
+      </c>
+      <c r="C252" t="n">
+        <v>164164</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E252" t="n">
+        <v>23624</v>
+      </c>
+      <c r="F252" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B251" t="n">
+      <c r="B253" t="n">
         <v>37335</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C253" t="n">
         <v>163324</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D253" t="n">
         <v>1801</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E253" t="n">
         <v>23437</v>
       </c>
-      <c r="F251" t="n">
+      <c r="F253" t="n">
         <v>12097</v>
       </c>
-      <c r="G251" t="n">
+      <c r="G253" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>27.01.2021</t>
+          <t>28.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>39833</v>
+        <v>39970</v>
       </c>
       <c r="C234" t="n">
-        <v>181028</v>
+        <v>181643</v>
       </c>
       <c r="D234" t="n">
-        <v>2032</v>
+        <v>2037</v>
       </c>
       <c r="E234" t="n">
-        <v>26342</v>
+        <v>26503</v>
       </c>
       <c r="F234" t="n">
-        <v>4353</v>
+        <v>4434</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>26.01.2021</t>
+          <t>27.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>39708</v>
+        <v>39833</v>
       </c>
       <c r="C235" t="n">
-        <v>180374</v>
+        <v>181028</v>
       </c>
       <c r="D235" t="n">
-        <v>2027</v>
+        <v>2032</v>
       </c>
       <c r="E235" t="n">
-        <v>26210</v>
+        <v>26342</v>
       </c>
       <c r="F235" t="n">
-        <v>4970</v>
+        <v>4353</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>25.01.2021</t>
+          <t>26.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>39602</v>
+        <v>39708</v>
       </c>
       <c r="C236" t="n">
-        <v>179690</v>
+        <v>180374</v>
       </c>
       <c r="D236" t="n">
-        <v>2013</v>
+        <v>2027</v>
       </c>
       <c r="E236" t="n">
-        <v>26107</v>
+        <v>26210</v>
       </c>
       <c r="F236" t="n">
-        <v>4884</v>
+        <v>4970</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>22.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>39366</v>
+        <v>39602</v>
       </c>
       <c r="C237" t="n">
-        <v>177870</v>
+        <v>179690</v>
       </c>
       <c r="D237" t="n">
-        <v>1992</v>
+        <v>2013</v>
       </c>
       <c r="E237" t="n">
-        <v>25769</v>
+        <v>26107</v>
       </c>
       <c r="F237" t="n">
-        <v>4852</v>
+        <v>4884</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>39274</v>
+        <v>39366</v>
       </c>
       <c r="C238" t="n">
-        <v>177274</v>
+        <v>177870</v>
       </c>
       <c r="D238" t="n">
-        <v>1978</v>
+        <v>1992</v>
       </c>
       <c r="E238" t="n">
-        <v>25701</v>
+        <v>25769</v>
       </c>
       <c r="F238" t="n">
-        <v>4930</v>
+        <v>4852</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>39109</v>
+        <v>39274</v>
       </c>
       <c r="C239" t="n">
-        <v>176645</v>
+        <v>177274</v>
       </c>
       <c r="D239" t="n">
-        <v>1972</v>
+        <v>1978</v>
       </c>
       <c r="E239" t="n">
-        <v>25450</v>
+        <v>25701</v>
       </c>
       <c r="F239" t="n">
-        <v>4740</v>
+        <v>4930</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>38983</v>
+        <v>39109</v>
       </c>
       <c r="C240" t="n">
-        <v>176057</v>
+        <v>176645</v>
       </c>
       <c r="D240" t="n">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="E240" t="n">
-        <v>25345</v>
+        <v>25450</v>
       </c>
       <c r="F240" t="n">
-        <v>4805</v>
+        <v>4740</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>38892</v>
+        <v>38983</v>
       </c>
       <c r="C241" t="n">
-        <v>175326</v>
+        <v>176057</v>
       </c>
       <c r="D241" t="n">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="E241" t="n">
-        <v>25173</v>
+        <v>25345</v>
       </c>
       <c r="F241" t="n">
-        <v>11760</v>
+        <v>4805</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>38737</v>
+        <v>38892</v>
       </c>
       <c r="C242" t="n">
-        <v>174793</v>
+        <v>175326</v>
       </c>
       <c r="D242" t="n">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="E242" t="n">
-        <v>25099</v>
+        <v>25173</v>
       </c>
       <c r="F242" t="n">
-        <v>11784</v>
+        <v>11760</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>38767</v>
+        <v>38737</v>
       </c>
       <c r="C243" t="n">
-        <v>174224</v>
+        <v>174793</v>
       </c>
       <c r="D243" t="n">
-        <v>1945</v>
+        <v>1954</v>
       </c>
       <c r="E243" t="n">
-        <v>25012</v>
+        <v>25099</v>
       </c>
       <c r="F243" t="n">
-        <v>11810</v>
+        <v>11784</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>38652</v>
+        <v>38767</v>
       </c>
       <c r="C244" t="n">
-        <v>173248</v>
+        <v>174224</v>
       </c>
       <c r="D244" t="n">
-        <v>1931</v>
+        <v>1945</v>
       </c>
       <c r="E244" t="n">
-        <v>24848</v>
+        <v>25012</v>
       </c>
       <c r="F244" t="n">
-        <v>11873</v>
+        <v>11810</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>38581</v>
+        <v>38652</v>
       </c>
       <c r="C245" t="n">
-        <v>172581</v>
+        <v>173248</v>
       </c>
       <c r="D245" t="n">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="E245" t="n">
-        <v>24715</v>
+        <v>24848</v>
       </c>
       <c r="F245" t="n">
-        <v>11943</v>
+        <v>11873</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>38421</v>
+        <v>38581</v>
       </c>
       <c r="C246" t="n">
-        <v>171474</v>
+        <v>172581</v>
       </c>
       <c r="D246" t="n">
-        <v>1916</v>
+        <v>1923</v>
       </c>
       <c r="E246" t="n">
-        <v>24461</v>
+        <v>24715</v>
       </c>
       <c r="F246" t="n">
-        <v>12044</v>
+        <v>11943</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>38244</v>
+        <v>38421</v>
       </c>
       <c r="C247" t="n">
-        <v>170099</v>
+        <v>171474</v>
       </c>
       <c r="D247" t="n">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="E247" t="n">
         <v>24461</v>
       </c>
       <c r="F247" t="n">
-        <v>11874</v>
+        <v>12044</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>38140</v>
+        <v>38244</v>
       </c>
       <c r="C248" t="n">
-        <v>168895</v>
+        <v>170099</v>
       </c>
       <c r="D248" t="n">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="E248" t="n">
-        <v>24326</v>
+        <v>24461</v>
       </c>
       <c r="F248" t="n">
-        <v>11912</v>
+        <v>11874</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,23 +6649,23 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>38099</v>
+        <v>38140</v>
       </c>
       <c r="C249" t="n">
-        <v>167957</v>
+        <v>168895</v>
       </c>
       <c r="D249" t="n">
-        <v>1889</v>
+        <v>1902</v>
       </c>
       <c r="E249" t="n">
-        <v>24270</v>
+        <v>24326</v>
       </c>
       <c r="F249" t="n">
-        <v>11940</v>
+        <v>11912</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6674,23 +6674,23 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>38002</v>
+        <v>38099</v>
       </c>
       <c r="C250" t="n">
-        <v>166952</v>
+        <v>167957</v>
       </c>
       <c r="D250" t="n">
-        <v>1875</v>
+        <v>1889</v>
       </c>
       <c r="E250" t="n">
-        <v>24117</v>
+        <v>24270</v>
       </c>
       <c r="F250" t="n">
-        <v>12010</v>
+        <v>11940</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6699,23 +6699,23 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>37853</v>
+        <v>38002</v>
       </c>
       <c r="C251" t="n">
-        <v>165764</v>
+        <v>166952</v>
       </c>
       <c r="D251" t="n">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="E251" t="n">
-        <v>23943</v>
+        <v>24117</v>
       </c>
       <c r="F251" t="n">
-        <v>12042</v>
+        <v>12010</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6724,23 +6724,23 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>08.01.2021</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>37519</v>
+        <v>37853</v>
       </c>
       <c r="C252" t="n">
-        <v>164164</v>
+        <v>165764</v>
       </c>
       <c r="D252" t="n">
-        <v>1828</v>
+        <v>1868</v>
       </c>
       <c r="E252" t="n">
-        <v>23624</v>
+        <v>23943</v>
       </c>
       <c r="F252" t="n">
-        <v>12067</v>
+        <v>12042</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6749,25 +6749,50 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>37519</v>
+      </c>
+      <c r="C253" t="n">
+        <v>164164</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E253" t="n">
+        <v>23624</v>
+      </c>
+      <c r="F253" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B253" t="n">
+      <c r="B254" t="n">
         <v>37335</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C254" t="n">
         <v>163324</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D254" t="n">
         <v>1801</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E254" t="n">
         <v>23437</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F254" t="n">
         <v>12097</v>
       </c>
-      <c r="G253" t="n">
+      <c r="G254" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>28.01.2021</t>
+          <t>02.02.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>39970</v>
+        <v>40408</v>
       </c>
       <c r="C234" t="n">
-        <v>181643</v>
+        <v>184752</v>
       </c>
       <c r="D234" t="n">
-        <v>2037</v>
+        <v>2075</v>
       </c>
       <c r="E234" t="n">
-        <v>26503</v>
+        <v>27247</v>
       </c>
       <c r="F234" t="n">
-        <v>4434</v>
+        <v>4361</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>27.01.2021</t>
+          <t>01.02.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>39833</v>
+        <v>40323</v>
       </c>
       <c r="C235" t="n">
-        <v>181028</v>
+        <v>184110</v>
       </c>
       <c r="D235" t="n">
-        <v>2032</v>
+        <v>2070</v>
       </c>
       <c r="E235" t="n">
-        <v>26342</v>
+        <v>27021</v>
       </c>
       <c r="F235" t="n">
-        <v>4353</v>
+        <v>4471</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>26.01.2021</t>
+          <t>29.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>39708</v>
+        <v>40071</v>
       </c>
       <c r="C236" t="n">
-        <v>180374</v>
+        <v>182312</v>
       </c>
       <c r="D236" t="n">
-        <v>2027</v>
+        <v>2050</v>
       </c>
       <c r="E236" t="n">
-        <v>26210</v>
+        <v>26809</v>
       </c>
       <c r="F236" t="n">
-        <v>4970</v>
+        <v>4434</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>25.01.2021</t>
+          <t>28.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>39602</v>
+        <v>39970</v>
       </c>
       <c r="C237" t="n">
-        <v>179690</v>
+        <v>181643</v>
       </c>
       <c r="D237" t="n">
-        <v>2013</v>
+        <v>2037</v>
       </c>
       <c r="E237" t="n">
-        <v>26107</v>
+        <v>26503</v>
       </c>
       <c r="F237" t="n">
-        <v>4884</v>
+        <v>4434</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>22.01.2021</t>
+          <t>27.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>39366</v>
+        <v>39833</v>
       </c>
       <c r="C238" t="n">
-        <v>177870</v>
+        <v>181028</v>
       </c>
       <c r="D238" t="n">
-        <v>1992</v>
+        <v>2032</v>
       </c>
       <c r="E238" t="n">
-        <v>25769</v>
+        <v>26342</v>
       </c>
       <c r="F238" t="n">
-        <v>4852</v>
+        <v>4353</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>26.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>39274</v>
+        <v>39708</v>
       </c>
       <c r="C239" t="n">
-        <v>177274</v>
+        <v>180374</v>
       </c>
       <c r="D239" t="n">
-        <v>1978</v>
+        <v>2027</v>
       </c>
       <c r="E239" t="n">
-        <v>25701</v>
+        <v>26210</v>
       </c>
       <c r="F239" t="n">
-        <v>4930</v>
+        <v>4970</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>39109</v>
+        <v>39602</v>
       </c>
       <c r="C240" t="n">
-        <v>176645</v>
+        <v>179690</v>
       </c>
       <c r="D240" t="n">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="E240" t="n">
-        <v>25450</v>
+        <v>26107</v>
       </c>
       <c r="F240" t="n">
-        <v>4740</v>
+        <v>4884</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>38983</v>
+        <v>39366</v>
       </c>
       <c r="C241" t="n">
-        <v>176057</v>
+        <v>177870</v>
       </c>
       <c r="D241" t="n">
-        <v>1969</v>
+        <v>1992</v>
       </c>
       <c r="E241" t="n">
-        <v>25345</v>
+        <v>25769</v>
       </c>
       <c r="F241" t="n">
-        <v>4805</v>
+        <v>4852</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>38892</v>
+        <v>39274</v>
       </c>
       <c r="C242" t="n">
-        <v>175326</v>
+        <v>177274</v>
       </c>
       <c r="D242" t="n">
-        <v>1959</v>
+        <v>1978</v>
       </c>
       <c r="E242" t="n">
-        <v>25173</v>
+        <v>25701</v>
       </c>
       <c r="F242" t="n">
-        <v>11760</v>
+        <v>4930</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>38737</v>
+        <v>39109</v>
       </c>
       <c r="C243" t="n">
-        <v>174793</v>
+        <v>176645</v>
       </c>
       <c r="D243" t="n">
-        <v>1954</v>
+        <v>1972</v>
       </c>
       <c r="E243" t="n">
-        <v>25099</v>
+        <v>25450</v>
       </c>
       <c r="F243" t="n">
-        <v>11784</v>
+        <v>4740</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>38767</v>
+        <v>38983</v>
       </c>
       <c r="C244" t="n">
-        <v>174224</v>
+        <v>176057</v>
       </c>
       <c r="D244" t="n">
-        <v>1945</v>
+        <v>1969</v>
       </c>
       <c r="E244" t="n">
-        <v>25012</v>
+        <v>25345</v>
       </c>
       <c r="F244" t="n">
-        <v>11810</v>
+        <v>4805</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>38652</v>
+        <v>38892</v>
       </c>
       <c r="C245" t="n">
-        <v>173248</v>
+        <v>175326</v>
       </c>
       <c r="D245" t="n">
-        <v>1931</v>
+        <v>1959</v>
       </c>
       <c r="E245" t="n">
-        <v>24848</v>
+        <v>25173</v>
       </c>
       <c r="F245" t="n">
-        <v>11873</v>
+        <v>11760</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>38581</v>
+        <v>38737</v>
       </c>
       <c r="C246" t="n">
-        <v>172581</v>
+        <v>174793</v>
       </c>
       <c r="D246" t="n">
-        <v>1923</v>
+        <v>1954</v>
       </c>
       <c r="E246" t="n">
-        <v>24715</v>
+        <v>25099</v>
       </c>
       <c r="F246" t="n">
-        <v>11943</v>
+        <v>11784</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>38421</v>
+        <v>38767</v>
       </c>
       <c r="C247" t="n">
-        <v>171474</v>
+        <v>174224</v>
       </c>
       <c r="D247" t="n">
-        <v>1916</v>
+        <v>1945</v>
       </c>
       <c r="E247" t="n">
-        <v>24461</v>
+        <v>25012</v>
       </c>
       <c r="F247" t="n">
-        <v>12044</v>
+        <v>11810</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>38244</v>
+        <v>38652</v>
       </c>
       <c r="C248" t="n">
-        <v>170099</v>
+        <v>173248</v>
       </c>
       <c r="D248" t="n">
-        <v>1909</v>
+        <v>1931</v>
       </c>
       <c r="E248" t="n">
-        <v>24461</v>
+        <v>24848</v>
       </c>
       <c r="F248" t="n">
-        <v>11874</v>
+        <v>11873</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,23 +6649,23 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>38140</v>
+        <v>38581</v>
       </c>
       <c r="C249" t="n">
-        <v>168895</v>
+        <v>172581</v>
       </c>
       <c r="D249" t="n">
-        <v>1902</v>
+        <v>1923</v>
       </c>
       <c r="E249" t="n">
-        <v>24326</v>
+        <v>24715</v>
       </c>
       <c r="F249" t="n">
-        <v>11912</v>
+        <v>11943</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6674,23 +6674,23 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>38099</v>
+        <v>38421</v>
       </c>
       <c r="C250" t="n">
-        <v>167957</v>
+        <v>171474</v>
       </c>
       <c r="D250" t="n">
-        <v>1889</v>
+        <v>1916</v>
       </c>
       <c r="E250" t="n">
-        <v>24270</v>
+        <v>24461</v>
       </c>
       <c r="F250" t="n">
-        <v>11940</v>
+        <v>12044</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6699,23 +6699,23 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>38002</v>
+        <v>38244</v>
       </c>
       <c r="C251" t="n">
-        <v>166952</v>
+        <v>170099</v>
       </c>
       <c r="D251" t="n">
-        <v>1875</v>
+        <v>1909</v>
       </c>
       <c r="E251" t="n">
-        <v>24117</v>
+        <v>24461</v>
       </c>
       <c r="F251" t="n">
-        <v>12010</v>
+        <v>11874</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6724,23 +6724,23 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>37853</v>
+        <v>38140</v>
       </c>
       <c r="C252" t="n">
-        <v>165764</v>
+        <v>168895</v>
       </c>
       <c r="D252" t="n">
-        <v>1868</v>
+        <v>1902</v>
       </c>
       <c r="E252" t="n">
-        <v>23943</v>
+        <v>24326</v>
       </c>
       <c r="F252" t="n">
-        <v>12042</v>
+        <v>11912</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6749,23 +6749,23 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>37519</v>
+        <v>38099</v>
       </c>
       <c r="C253" t="n">
-        <v>164164</v>
+        <v>167957</v>
       </c>
       <c r="D253" t="n">
-        <v>1828</v>
+        <v>1889</v>
       </c>
       <c r="E253" t="n">
-        <v>23624</v>
+        <v>24270</v>
       </c>
       <c r="F253" t="n">
-        <v>12067</v>
+        <v>11940</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -6774,25 +6774,100 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
+          <t>09.01.2021</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>38002</v>
+      </c>
+      <c r="C254" t="n">
+        <v>166952</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E254" t="n">
+        <v>24117</v>
+      </c>
+      <c r="F254" t="n">
+        <v>12010</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>37853</v>
+      </c>
+      <c r="C255" t="n">
+        <v>165764</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1868</v>
+      </c>
+      <c r="E255" t="n">
+        <v>23943</v>
+      </c>
+      <c r="F255" t="n">
+        <v>12042</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>37519</v>
+      </c>
+      <c r="C256" t="n">
+        <v>164164</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E256" t="n">
+        <v>23624</v>
+      </c>
+      <c r="F256" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B254" t="n">
+      <c r="B257" t="n">
         <v>37335</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C257" t="n">
         <v>163324</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D257" t="n">
         <v>1801</v>
       </c>
-      <c r="E254" t="n">
+      <c r="E257" t="n">
         <v>23437</v>
       </c>
-      <c r="F254" t="n">
+      <c r="F257" t="n">
         <v>12097</v>
       </c>
-      <c r="G254" t="n">
+      <c r="G257" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/rs.xlsx
+++ b/dataSet/rawData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>02.02.2021</t>
+          <t>03.02.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>40408</v>
+        <v>40490</v>
       </c>
       <c r="C234" t="n">
-        <v>184752</v>
+        <v>185309</v>
       </c>
       <c r="D234" t="n">
-        <v>2075</v>
+        <v>2080</v>
       </c>
       <c r="E234" t="n">
-        <v>27247</v>
+        <v>27425</v>
       </c>
       <c r="F234" t="n">
-        <v>4361</v>
+        <v>4176</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>01.02.2021</t>
+          <t>02.02.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>40323</v>
+        <v>40408</v>
       </c>
       <c r="C235" t="n">
-        <v>184110</v>
+        <v>184752</v>
       </c>
       <c r="D235" t="n">
-        <v>2070</v>
+        <v>2075</v>
       </c>
       <c r="E235" t="n">
-        <v>27021</v>
+        <v>27247</v>
       </c>
       <c r="F235" t="n">
-        <v>4471</v>
+        <v>4361</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>29.01.2021</t>
+          <t>01.02.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>40071</v>
+        <v>40323</v>
       </c>
       <c r="C236" t="n">
-        <v>182312</v>
+        <v>184110</v>
       </c>
       <c r="D236" t="n">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="E236" t="n">
-        <v>26809</v>
+        <v>27021</v>
       </c>
       <c r="F236" t="n">
-        <v>4434</v>
+        <v>4471</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,20 +6349,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>28.01.2021</t>
+          <t>29.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>39970</v>
+        <v>40071</v>
       </c>
       <c r="C237" t="n">
-        <v>181643</v>
+        <v>182312</v>
       </c>
       <c r="D237" t="n">
-        <v>2037</v>
+        <v>2050</v>
       </c>
       <c r="E237" t="n">
-        <v>26503</v>
+        <v>26809</v>
       </c>
       <c r="F237" t="n">
         <v>4434</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>27.01.2021</t>
+          <t>28.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>39833</v>
+        <v>39970</v>
       </c>
       <c r="C238" t="n">
-        <v>181028</v>
+        <v>181643</v>
       </c>
       <c r="D238" t="n">
-        <v>2032</v>
+        <v>2037</v>
       </c>
       <c r="E238" t="n">
-        <v>26342</v>
+        <v>26503</v>
       </c>
       <c r="F238" t="n">
-        <v>4353</v>
+        <v>4434</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>26.01.2021</t>
+          <t>27.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>39708</v>
+        <v>39833</v>
       </c>
       <c r="C239" t="n">
-        <v>180374</v>
+        <v>181028</v>
       </c>
       <c r="D239" t="n">
-        <v>2027</v>
+        <v>2032</v>
       </c>
       <c r="E239" t="n">
-        <v>26210</v>
+        <v>26342</v>
       </c>
       <c r="F239" t="n">
-        <v>4970</v>
+        <v>4353</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>25.01.2021</t>
+          <t>26.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>39602</v>
+        <v>39708</v>
       </c>
       <c r="C240" t="n">
-        <v>179690</v>
+        <v>180374</v>
       </c>
       <c r="D240" t="n">
-        <v>2013</v>
+        <v>2027</v>
       </c>
       <c r="E240" t="n">
-        <v>26107</v>
+        <v>26210</v>
       </c>
       <c r="F240" t="n">
-        <v>4884</v>
+        <v>4970</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>22.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>39366</v>
+        <v>39602</v>
       </c>
       <c r="C241" t="n">
-        <v>177870</v>
+        <v>179690</v>
       </c>
       <c r="D241" t="n">
-        <v>1992</v>
+        <v>2013</v>
       </c>
       <c r="E241" t="n">
-        <v>25769</v>
+        <v>26107</v>
       </c>
       <c r="F241" t="n">
-        <v>4852</v>
+        <v>4884</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>39274</v>
+        <v>39366</v>
       </c>
       <c r="C242" t="n">
-        <v>177274</v>
+        <v>177870</v>
       </c>
       <c r="D242" t="n">
-        <v>1978</v>
+        <v>1992</v>
       </c>
       <c r="E242" t="n">
-        <v>25701</v>
+        <v>25769</v>
       </c>
       <c r="F242" t="n">
-        <v>4930</v>
+        <v>4852</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>39109</v>
+        <v>39274</v>
       </c>
       <c r="C243" t="n">
-        <v>176645</v>
+        <v>177274</v>
       </c>
       <c r="D243" t="n">
-        <v>1972</v>
+        <v>1978</v>
       </c>
       <c r="E243" t="n">
-        <v>25450</v>
+        <v>25701</v>
       </c>
       <c r="F243" t="n">
-        <v>4740</v>
+        <v>4930</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>38983</v>
+        <v>39109</v>
       </c>
       <c r="C244" t="n">
-        <v>176057</v>
+        <v>176645</v>
       </c>
       <c r="D244" t="n">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="E244" t="n">
-        <v>25345</v>
+        <v>25450</v>
       </c>
       <c r="F244" t="n">
-        <v>4805</v>
+        <v>4740</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>38892</v>
+        <v>38983</v>
       </c>
       <c r="C245" t="n">
-        <v>175326</v>
+        <v>176057</v>
       </c>
       <c r="D245" t="n">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="E245" t="n">
-        <v>25173</v>
+        <v>25345</v>
       </c>
       <c r="F245" t="n">
-        <v>11760</v>
+        <v>4805</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>38737</v>
+        <v>38892</v>
       </c>
       <c r="C246" t="n">
-        <v>174793</v>
+        <v>175326</v>
       </c>
       <c r="D246" t="n">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="E246" t="n">
-        <v>25099</v>
+        <v>25173</v>
       </c>
       <c r="F246" t="n">
-        <v>11784</v>
+        <v>11760</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>38767</v>
+        <v>38737</v>
       </c>
       <c r="C247" t="n">
-        <v>174224</v>
+        <v>174793</v>
       </c>
       <c r="D247" t="n">
-        <v>1945</v>
+        <v>1954</v>
       </c>
       <c r="E247" t="n">
-        <v>25012</v>
+        <v>25099</v>
       </c>
       <c r="F247" t="n">
-        <v>11810</v>
+        <v>11784</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>38652</v>
+        <v>38767</v>
       </c>
       <c r="C248" t="n">
-        <v>173248</v>
+        <v>174224</v>
       </c>
       <c r="D248" t="n">
-        <v>1931</v>
+        <v>1945</v>
       </c>
       <c r="E248" t="n">
-        <v>24848</v>
+        <v>25012</v>
       </c>
       <c r="F248" t="n">
-        <v>11873</v>
+        <v>11810</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,23 +6649,23 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>38581</v>
+        <v>38652</v>
       </c>
       <c r="C249" t="n">
-        <v>172581</v>
+        <v>173248</v>
       </c>
       <c r="D249" t="n">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="E249" t="n">
-        <v>24715</v>
+        <v>24848</v>
       </c>
       <c r="F249" t="n">
-        <v>11943</v>
+        <v>11873</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6674,23 +6674,23 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>38421</v>
+        <v>38581</v>
       </c>
       <c r="C250" t="n">
-        <v>171474</v>
+        <v>172581</v>
       </c>
       <c r="D250" t="n">
-        <v>1916</v>
+        <v>1923</v>
       </c>
       <c r="E250" t="n">
-        <v>24461</v>
+        <v>24715</v>
       </c>
       <c r="F250" t="n">
-        <v>12044</v>
+        <v>11943</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6699,23 +6699,23 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>38244</v>
+        <v>38421</v>
       </c>
       <c r="C251" t="n">
-        <v>170099</v>
+        <v>171474</v>
       </c>
       <c r="D251" t="n">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="E251" t="n">
         <v>24461</v>
       </c>
       <c r="F251" t="n">
-        <v>11874</v>
+        <v>12044</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6724,23 +6724,23 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>38140</v>
+        <v>38244</v>
       </c>
       <c r="C252" t="n">
-        <v>168895</v>
+        <v>170099</v>
       </c>
       <c r="D252" t="n">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="E252" t="n">
-        <v>24326</v>
+        <v>24461</v>
       </c>
       <c r="F252" t="n">
-        <v>11912</v>
+        <v>11874</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6749,23 +6749,23 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>38099</v>
+        <v>38140</v>
       </c>
       <c r="C253" t="n">
-        <v>167957</v>
+        <v>168895</v>
       </c>
       <c r="D253" t="n">
-        <v>1889</v>
+        <v>1902</v>
       </c>
       <c r="E253" t="n">
-        <v>24270</v>
+        <v>24326</v>
       </c>
       <c r="F253" t="n">
-        <v>11940</v>
+        <v>11912</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -6774,23 +6774,23 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>38002</v>
+        <v>38099</v>
       </c>
       <c r="C254" t="n">
-        <v>166952</v>
+        <v>167957</v>
       </c>
       <c r="D254" t="n">
-        <v>1875</v>
+        <v>1889</v>
       </c>
       <c r="E254" t="n">
-        <v>24117</v>
+        <v>24270</v>
       </c>
       <c r="F254" t="n">
-        <v>12010</v>
+        <v>11940</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -6799,23 +6799,23 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>37853</v>
+        <v>38002</v>
       </c>
       <c r="C255" t="n">
-        <v>165764</v>
+        <v>166952</v>
       </c>
       <c r="D255" t="n">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="E255" t="n">
-        <v>23943</v>
+        <v>24117</v>
       </c>
       <c r="F255" t="n">
-        <v>12042</v>
+        <v>12010</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -6824,23 +6824,23 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>08.01.2021</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>37519</v>
+        <v>37853</v>
       </c>
       <c r="C256" t="n">
-        <v>164164</v>
+        <v>165764</v>
       </c>
       <c r="D256" t="n">
-        <v>1828</v>
+        <v>1868</v>
       </c>
       <c r="E256" t="n">
-        <v>23624</v>
+        <v>23943</v>
       </c>
       <c r="F256" t="n">
-        <v>12067</v>
+        <v>12042</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -6849,25 +6849,50 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>37519</v>
+      </c>
+      <c r="C257" t="n">
+        <v>164164</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E257" t="n">
+        <v>23624</v>
+      </c>
+      <c r="F257" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B257" t="n">
+      <c r="B258" t="n">
         <v>37335</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C258" t="n">
         <v>163324</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D258" t="n">
         <v>1801</v>
       </c>
-      <c r="E257" t="n">
+      <c r="E258" t="n">
         <v>23437</v>
       </c>
-      <c r="F257" t="n">
+      <c r="F258" t="n">
         <v>12097</v>
       </c>
-      <c r="G257" t="n">
+      <c r="G258" t="n">
         <v>0</v>
       </c>
     </row>
